--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>729533.220335181</v>
+        <v>727570.0444695984</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18452710.04311623</v>
+        <v>18452710.04311624</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7351890.162844501</v>
+        <v>7351890.1628445</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>260.4756387786881</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>391.5110944187796</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -825,19 +825,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>204.5245540530156</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>148.4357794827117</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>46.93907536729473</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>303.8505841143806</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>76.84027148895818</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>400.7950794125002</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1144,16 +1144,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>18.53687908691671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>65.76953573495733</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.04459329792188</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1381,10 +1381,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.8533420311461</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.3605583491583</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6977653549972</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>218.2930756814272</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>92.62102441273615</v>
       </c>
       <c r="H12" t="n">
-        <v>48.08862329942485</v>
+        <v>48.08862329942484</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>82.84088206165666</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.01389101160041</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>33.061195361132</v>
+        <v>161.2422974035</v>
       </c>
       <c r="T13" t="n">
         <v>239.1428046807087</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.360095721733</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1624,7 +1624,7 @@
         <v>399.3757348545124</v>
       </c>
       <c r="H14" t="n">
-        <v>60.24912287795633</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.3605583491583</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>69.82821093657623</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>92.62102441273615</v>
       </c>
       <c r="H15" t="n">
-        <v>48.08862329942485</v>
+        <v>48.08862329942484</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>93.32983047876357</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.547984384256642</v>
       </c>
       <c r="H16" t="n">
         <v>138.6894540535102</v>
       </c>
       <c r="I16" t="n">
-        <v>86.36131038867778</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>157.1781107759856</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>399.3757348545124</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.36055834915831</v>
+        <v>69.79785615072964</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6977653549972</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>9.207062834184008</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2019,10 +2019,10 @@
         <v>164.1817479710048</v>
       </c>
       <c r="H19" t="n">
-        <v>138.6894540535102</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.36131038867778</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.01389101160041</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>161.2422974035</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>58.67640045170735</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>164.3949784052789</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>52.02205888853837</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>90.83168765225624</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.1817479710048</v>
@@ -2259,7 +2259,7 @@
         <v>138.6894540535102</v>
       </c>
       <c r="I22" t="n">
-        <v>86.36131038867778</v>
+        <v>31.75990618417431</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.01389101160041</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>161.2422974035</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.1428046807087</v>
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2493,10 +2493,10 @@
         <v>164.1817479710048</v>
       </c>
       <c r="H25" t="n">
-        <v>138.6894540535102</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.36131038867778</v>
+        <v>9.20706283418391</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.01389101160041</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>161.2422974035</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.1428046807087</v>
       </c>
       <c r="U25" t="n">
         <v>277.360095721733</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>266.9477841093197</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2572,7 +2572,7 @@
         <v>399.3757348545124</v>
       </c>
       <c r="H26" t="n">
-        <v>285.4683906365441</v>
+        <v>285.4683906365424</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.1817479710048</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.6894540535102</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>86.36131038867778</v>
+        <v>11.70520566069174</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.01389101160041</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>161.2422974035</v>
       </c>
       <c r="T28" t="n">
         <v>239.1428046807087</v>
@@ -2772,7 +2772,7 @@
         <v>277.360095721733</v>
       </c>
       <c r="V28" t="n">
-        <v>34.59545235745028</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2803,13 +2803,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924956</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>399.3757348545124</v>
       </c>
       <c r="H29" t="n">
-        <v>285.4683906365424</v>
+        <v>285.4683906365441</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>164.1817479710048</v>
       </c>
       <c r="H31" t="n">
-        <v>138.6894540535042</v>
+        <v>87.66171527833976</v>
       </c>
       <c r="I31" t="n">
-        <v>86.36131038867778</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.01389101160041</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>27.80497942861685</v>
+        <v>161.2422974035</v>
       </c>
       <c r="T31" t="n">
         <v>239.1428046807087</v>
@@ -3012,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3043,7 +3043,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>399.3757348545124</v>
+        <v>399.3757348545142</v>
       </c>
       <c r="H32" t="n">
         <v>285.4683906365424</v>
@@ -3192,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>9.207062834183896</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3201,10 +3201,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.1817479710048</v>
       </c>
       <c r="H34" t="n">
-        <v>138.6894540535102</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.25804901068196</v>
+        <v>161.2422974035</v>
       </c>
       <c r="T34" t="n">
         <v>239.1428046807087</v>
@@ -3277,10 +3277,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>344.9886176267923</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>399.3757348545124</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>323.4914124888111</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3429,10 +3429,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3444,7 +3444,7 @@
         <v>138.6894540535102</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>7.049841557748849</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>28.01389101160041</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>161.2422974035</v>
       </c>
       <c r="T37" t="n">
-        <v>81.20521470878585</v>
+        <v>239.1428046807087</v>
       </c>
       <c r="U37" t="n">
         <v>277.360095721733</v>
@@ -3508,16 +3508,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>202.8517977911068</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>405.2076837258449</v>
       </c>
       <c r="G38" t="n">
-        <v>399.3757348545124</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>285.4683906365424</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.36055834915831</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.6892913262747</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6977653549972</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3672,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8344711322775</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.6894540535102</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.36131038867778</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>239.1428046807087</v>
       </c>
       <c r="U40" t="n">
-        <v>277.360095721733</v>
+        <v>36.00064592863708</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3757,7 +3757,7 @@
         <v>399.3757348545124</v>
       </c>
       <c r="H41" t="n">
-        <v>285.4683906365424</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>255.6977653549972</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>278.0301983593121</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.97826614710012</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3909,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.1817479710048</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.6894540535102</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.36131038867778</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>28.01389101160041</v>
       </c>
       <c r="S43" t="n">
-        <v>161.2422974035</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.1428046807087</v>
+        <v>159.0256522911129</v>
       </c>
       <c r="U43" t="n">
         <v>277.360095721733</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>123.0671488969743</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3988,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>399.3757348545124</v>
       </c>
       <c r="H44" t="n">
-        <v>285.4683906365424</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>82.36055834915831</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>152.0751101091371</v>
       </c>
       <c r="U44" t="n">
         <v>255.6977653549972</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>268.9864589726462</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4143,13 +4143,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>84.42897139907907</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.1817479710048</v>
       </c>
       <c r="H46" t="n">
         <v>138.6894540535102</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.01389101160041</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>161.2422974035</v>
       </c>
       <c r="T46" t="n">
         <v>239.1428046807087</v>
       </c>
       <c r="U46" t="n">
-        <v>277.360095721733</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>171.9366687584445</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>561.2807824307324</v>
+        <v>533.4539135538939</v>
       </c>
       <c r="C2" t="n">
-        <v>134.3800524440326</v>
+        <v>510.5935876075981</v>
       </c>
       <c r="D2" t="n">
         <v>115.1278356694369</v>
@@ -4333,25 +4333,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K2" t="n">
-        <v>357.6855680512415</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L2" t="n">
-        <v>814.4714747539724</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M2" t="n">
-        <v>1271.257381456703</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.257381456703</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4360,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V2" t="n">
-        <v>1229.755298763999</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="W2" t="n">
-        <v>833.3639490643454</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6843542724968</v>
+        <v>954.5991438501296</v>
       </c>
       <c r="Y2" t="n">
-        <v>824.3874882677911</v>
+        <v>953.302277845424</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662884</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N3" t="n">
-        <v>950.4838058662884</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="O3" t="n">
-        <v>1407.269712569019</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>538.4582981609079</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>366.4857350398239</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K4" t="n">
         <v>76.20565529896515</v>
@@ -4515,25 +4515,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1591.9705510891</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1591.9705510891</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.259083697129</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.259083697129</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="X4" t="n">
-        <v>1310.259083697129</v>
+        <v>954.9670351832315</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.259083697129</v>
+        <v>728.6242668729735</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>859.1491609566978</v>
+        <v>1773.401994551945</v>
       </c>
       <c r="C5" t="n">
-        <v>836.288835010402</v>
+        <v>1750.541668605649</v>
       </c>
       <c r="D5" t="n">
-        <v>817.0366182358063</v>
+        <v>1327.249047790649</v>
       </c>
       <c r="E5" t="n">
-        <v>795.1000824240679</v>
+        <v>901.2721079385067</v>
       </c>
       <c r="F5" t="n">
-        <v>774.0163046538721</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G5" t="n">
-        <v>369.6772422433207</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H5" t="n">
         <v>71.80886371735554</v>
@@ -4570,49 +4570,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>475.942330131692</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="M5" t="n">
-        <v>950.4838058662885</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="N5" t="n">
-        <v>950.4838058662885</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.257381456703</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.186415599625</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.186415599625</v>
       </c>
       <c r="U5" t="n">
-        <v>1587.244713637749</v>
+        <v>1798.186415599625</v>
       </c>
       <c r="V5" t="n">
-        <v>1280.324931704031</v>
+        <v>1798.186415599625</v>
       </c>
       <c r="W5" t="n">
-        <v>883.9335820043781</v>
+        <v>1798.186415599625</v>
       </c>
       <c r="X5" t="n">
-        <v>876.2539872125294</v>
+        <v>1790.506820807776</v>
       </c>
       <c r="Y5" t="n">
-        <v>874.9571212078238</v>
+        <v>1789.209954803071</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254695</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L6" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M6" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N6" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>931.7327767256256</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C7" t="n">
-        <v>759.7602136045416</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D7" t="n">
-        <v>596.4434407313123</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
         <v>36.91199246082674</v>
@@ -4755,22 +4755,22 @@
         <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1628.425962247645</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.241513747949</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V7" t="n">
-        <v>1348.241513747949</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W7" t="n">
-        <v>1348.241513747949</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X7" t="n">
-        <v>1348.241513747949</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y7" t="n">
-        <v>1121.898745437691</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>984.0453067609515</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="C8" t="n">
-        <v>961.1849808146557</v>
+        <v>99.48318118750379</v>
       </c>
       <c r="D8" t="n">
-        <v>941.93276404006</v>
+        <v>80.23096441290814</v>
       </c>
       <c r="E8" t="n">
-        <v>919.9962282283216</v>
+        <v>58.29442860116974</v>
       </c>
       <c r="F8" t="n">
-        <v>494.8720464177218</v>
+        <v>37.21065083097405</v>
       </c>
       <c r="G8" t="n">
-        <v>90.5329840071704</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
         <v>36.91199246082674</v>
@@ -4807,49 +4807,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L8" t="n">
-        <v>932.7282368344229</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M8" t="n">
-        <v>1389.514143537154</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="N8" t="n">
-        <v>1389.514143537154</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.319142682382</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V8" t="n">
-        <v>1008.829727808632</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W8" t="n">
-        <v>1008.829727808632</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X8" t="n">
-        <v>1001.150133016783</v>
+        <v>1329.512330082224</v>
       </c>
       <c r="Y8" t="n">
-        <v>999.8532670120775</v>
+        <v>924.1750600371148</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>957.9304488282003</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>280.4768292123964</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C10" t="n">
-        <v>280.4768292123964</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>280.4768292123964</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>280.4768292123964</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
         <v>280.4768292123964</v>
@@ -4962,13 +4962,13 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M10" t="n">
         <v>822.0807715636367</v>
@@ -4986,28 +4986,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X10" t="n">
-        <v>305.7743982001963</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.4768292123964</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1754.057949399525</v>
+        <v>1729.795729236547</v>
       </c>
       <c r="C11" t="n">
-        <v>1327.157219412825</v>
+        <v>1302.894999249848</v>
       </c>
       <c r="D11" t="n">
-        <v>903.8645985978253</v>
+        <v>879.6023784348479</v>
       </c>
       <c r="E11" t="n">
-        <v>477.8876587456829</v>
+        <v>453.6254385827054</v>
       </c>
       <c r="F11" t="n">
-        <v>52.76347693508309</v>
+        <v>453.6254385827054</v>
       </c>
       <c r="G11" t="n">
-        <v>52.76347693508309</v>
+        <v>52.7634769350831</v>
       </c>
       <c r="H11" t="n">
-        <v>52.76347693508309</v>
+        <v>52.7634769350831</v>
       </c>
       <c r="I11" t="n">
-        <v>53.67226329923857</v>
+        <v>53.67226329923859</v>
       </c>
       <c r="J11" t="n">
-        <v>125.9884577554632</v>
+        <v>101.8442156134248</v>
       </c>
       <c r="K11" t="n">
-        <v>778.9364848271164</v>
+        <v>182.2864940569344</v>
       </c>
       <c r="L11" t="n">
-        <v>884.7287807310412</v>
+        <v>835.2345211285877</v>
       </c>
       <c r="M11" t="n">
-        <v>1537.676807802694</v>
+        <v>1488.182548200241</v>
       </c>
       <c r="N11" t="n">
-        <v>2190.624834874347</v>
+        <v>2141.130575271894</v>
       </c>
       <c r="O11" t="n">
-        <v>2307.056818614777</v>
+        <v>2257.562559012324</v>
       </c>
       <c r="P11" t="n">
-        <v>2400.822410348506</v>
+        <v>2351.328150746053</v>
       </c>
       <c r="Q11" t="n">
-        <v>2463.408393454695</v>
+        <v>2463.408393454696</v>
       </c>
       <c r="R11" t="n">
         <v>2638.173846754155</v>
       </c>
       <c r="S11" t="n">
-        <v>2638.173846754155</v>
+        <v>2554.981363573187</v>
       </c>
       <c r="T11" t="n">
-        <v>2638.173846754155</v>
+        <v>2554.981363573187</v>
       </c>
       <c r="U11" t="n">
-        <v>2379.893275688501</v>
+        <v>2554.981363573187</v>
       </c>
       <c r="V11" t="n">
-        <v>2159.395219444635</v>
+        <v>2554.981363573187</v>
       </c>
       <c r="W11" t="n">
-        <v>2159.395219444635</v>
+        <v>2554.981363573187</v>
       </c>
       <c r="X11" t="n">
-        <v>2159.395219444635</v>
+        <v>2554.981363573187</v>
       </c>
       <c r="Y11" t="n">
-        <v>1754.057949399525</v>
+        <v>2149.644093528078</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>101.3378439041991</v>
       </c>
       <c r="H12" t="n">
-        <v>52.76347693508309</v>
+        <v>52.7634769350831</v>
       </c>
       <c r="I12" t="n">
-        <v>53.53003909312066</v>
+        <v>53.53003909312067</v>
       </c>
       <c r="J12" t="n">
-        <v>79.16302375002765</v>
+        <v>99.09504691940094</v>
       </c>
       <c r="K12" t="n">
-        <v>135.6740363082087</v>
+        <v>752.0430739910543</v>
       </c>
       <c r="L12" t="n">
-        <v>219.1874795224988</v>
+        <v>835.5565172053444</v>
       </c>
       <c r="M12" t="n">
-        <v>460.1631486646989</v>
+        <v>936.1582574397773</v>
       </c>
       <c r="N12" t="n">
-        <v>565.7689224121254</v>
+        <v>1041.764031187204</v>
       </c>
       <c r="O12" t="n">
-        <v>658.7668569086594</v>
+        <v>1134.761965683738</v>
       </c>
       <c r="P12" t="n">
-        <v>1311.714883980313</v>
+        <v>1206.259383695407</v>
       </c>
       <c r="Q12" t="n">
-        <v>1838.06218983415</v>
+        <v>1732.606689549244</v>
       </c>
       <c r="R12" t="n">
         <v>1844.88057258603</v>
@@ -5196,22 +5196,22 @@
         <v>139.9971237923334</v>
       </c>
       <c r="I13" t="n">
-        <v>52.76347693508309</v>
+        <v>52.7634769350831</v>
       </c>
       <c r="J13" t="n">
-        <v>139.1375592343536</v>
+        <v>139.1375592343538</v>
       </c>
       <c r="K13" t="n">
-        <v>413.1283978170632</v>
+        <v>413.1283978170636</v>
       </c>
       <c r="L13" t="n">
-        <v>828.5543219331878</v>
+        <v>828.5543219331881</v>
       </c>
       <c r="M13" t="n">
         <v>1283.778348678823</v>
       </c>
       <c r="N13" t="n">
-        <v>1723.78540531111</v>
+        <v>1723.785405311111</v>
       </c>
       <c r="O13" t="n">
         <v>2136.956758931063</v>
@@ -5223,28 +5223,28 @@
         <v>2638.173846754155</v>
       </c>
       <c r="R13" t="n">
-        <v>2609.876987146477</v>
+        <v>2638.173846754155</v>
       </c>
       <c r="S13" t="n">
-        <v>2576.481840317051</v>
+        <v>2475.302839275872</v>
       </c>
       <c r="T13" t="n">
-        <v>2334.923451750679</v>
+        <v>2233.7444507095</v>
       </c>
       <c r="U13" t="n">
-        <v>2334.923451750679</v>
+        <v>1953.582737859264</v>
       </c>
       <c r="V13" t="n">
-        <v>2053.211984358708</v>
+        <v>1671.871270467293</v>
       </c>
       <c r="W13" t="n">
-        <v>1778.359580531221</v>
+        <v>1671.871270467293</v>
       </c>
       <c r="X13" t="n">
-        <v>1535.795683977026</v>
+        <v>1429.307373913098</v>
       </c>
       <c r="Y13" t="n">
-        <v>1309.452915666768</v>
+        <v>1202.96460560284</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2218.325482462625</v>
+        <v>1730.567052599201</v>
       </c>
       <c r="C14" t="n">
-        <v>1791.424752475925</v>
+        <v>1730.567052599201</v>
       </c>
       <c r="D14" t="n">
-        <v>1368.132131660925</v>
+        <v>1307.274431784202</v>
       </c>
       <c r="E14" t="n">
-        <v>942.1551918087827</v>
+        <v>881.2974919320591</v>
       </c>
       <c r="F14" t="n">
-        <v>517.0310099981829</v>
+        <v>456.1733101214593</v>
       </c>
       <c r="G14" t="n">
-        <v>113.6211768118067</v>
+        <v>52.7634769350831</v>
       </c>
       <c r="H14" t="n">
-        <v>52.76347693508309</v>
+        <v>52.7634769350831</v>
       </c>
       <c r="I14" t="n">
-        <v>53.67226329923857</v>
+        <v>53.67226329923858</v>
       </c>
       <c r="J14" t="n">
-        <v>101.8442156134247</v>
+        <v>101.8442156134248</v>
       </c>
       <c r="K14" t="n">
-        <v>231.780753659388</v>
+        <v>754.792242685078</v>
       </c>
       <c r="L14" t="n">
-        <v>884.7287807310412</v>
+        <v>860.5845385890028</v>
       </c>
       <c r="M14" t="n">
-        <v>1537.676807802694</v>
+        <v>1121.566660947916</v>
       </c>
       <c r="N14" t="n">
-        <v>2190.624834874347</v>
+        <v>1247.165014482951</v>
       </c>
       <c r="O14" t="n">
-        <v>2307.056818614777</v>
+        <v>1900.113041554604</v>
       </c>
       <c r="P14" t="n">
-        <v>2400.822410348506</v>
+        <v>2553.061068626258</v>
       </c>
       <c r="Q14" t="n">
-        <v>2463.408393454695</v>
+        <v>2615.647051732447</v>
       </c>
       <c r="R14" t="n">
         <v>2638.173846754155</v>
       </c>
       <c r="S14" t="n">
-        <v>2638.173846754155</v>
+        <v>2554.981363573187</v>
       </c>
       <c r="T14" t="n">
-        <v>2638.173846754155</v>
+        <v>2484.447817172605</v>
       </c>
       <c r="U14" t="n">
-        <v>2638.173846754155</v>
+        <v>2484.447817172605</v>
       </c>
       <c r="V14" t="n">
-        <v>2638.173846754155</v>
+        <v>2126.958402298855</v>
       </c>
       <c r="W14" t="n">
-        <v>2638.173846754155</v>
+        <v>1730.567052599201</v>
       </c>
       <c r="X14" t="n">
-        <v>2638.173846754155</v>
+        <v>1730.567052599201</v>
       </c>
       <c r="Y14" t="n">
-        <v>2638.173846754155</v>
+        <v>1730.567052599201</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>101.3378439041991</v>
       </c>
       <c r="H15" t="n">
-        <v>52.76347693508309</v>
+        <v>52.7634769350831</v>
       </c>
       <c r="I15" t="n">
-        <v>76.9873449375325</v>
+        <v>53.53003909312067</v>
       </c>
       <c r="J15" t="n">
-        <v>102.6203295944395</v>
+        <v>79.16302375002766</v>
       </c>
       <c r="K15" t="n">
-        <v>159.1313421526206</v>
+        <v>732.1110508216809</v>
       </c>
       <c r="L15" t="n">
-        <v>812.0793692242738</v>
+        <v>941.0120174902503</v>
       </c>
       <c r="M15" t="n">
-        <v>912.6811094587067</v>
+        <v>1041.613757724683</v>
       </c>
       <c r="N15" t="n">
-        <v>1018.286883206133</v>
+        <v>1147.21953147211</v>
       </c>
       <c r="O15" t="n">
-        <v>1145.431901677528</v>
+        <v>1240.217465968644</v>
       </c>
       <c r="P15" t="n">
-        <v>1798.379928749181</v>
+        <v>1311.714883980313</v>
       </c>
       <c r="Q15" t="n">
         <v>1838.06218983415</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.6493734556102</v>
+        <v>709.6493734556107</v>
       </c>
       <c r="C16" t="n">
-        <v>537.6768103345262</v>
+        <v>537.6768103345266</v>
       </c>
       <c r="D16" t="n">
-        <v>374.3600374612969</v>
+        <v>374.3600374612973</v>
       </c>
       <c r="E16" t="n">
-        <v>374.3600374612969</v>
+        <v>374.3600374612973</v>
       </c>
       <c r="F16" t="n">
-        <v>280.0874814221418</v>
+        <v>202.4982632358578</v>
       </c>
       <c r="G16" t="n">
-        <v>280.0874814221418</v>
+        <v>192.8538345648915</v>
       </c>
       <c r="H16" t="n">
-        <v>139.9971237923334</v>
+        <v>52.7634769350831</v>
       </c>
       <c r="I16" t="n">
-        <v>52.76347693508309</v>
+        <v>52.7634769350831</v>
       </c>
       <c r="J16" t="n">
-        <v>139.1375592343536</v>
+        <v>139.1375592343538</v>
       </c>
       <c r="K16" t="n">
-        <v>413.1283978170633</v>
+        <v>413.1283978170636</v>
       </c>
       <c r="L16" t="n">
-        <v>828.5543219331876</v>
+        <v>828.554321933188</v>
       </c>
       <c r="M16" t="n">
         <v>1283.778348678823</v>
       </c>
       <c r="N16" t="n">
-        <v>1723.78540531111</v>
+        <v>1723.785405311111</v>
       </c>
       <c r="O16" t="n">
-        <v>2136.956758931062</v>
+        <v>2136.956758931063</v>
       </c>
       <c r="P16" t="n">
         <v>2476.965275239655</v>
@@ -5460,13 +5460,13 @@
         <v>2638.173846754155</v>
       </c>
       <c r="R16" t="n">
-        <v>2609.876987146477</v>
+        <v>2609.876987146478</v>
       </c>
       <c r="S16" t="n">
-        <v>2447.005979668194</v>
+        <v>2447.005979668195</v>
       </c>
       <c r="T16" t="n">
-        <v>2205.447591101822</v>
+        <v>2205.447591101823</v>
       </c>
       <c r="U16" t="n">
         <v>1925.285878251587</v>
@@ -5481,7 +5481,7 @@
         <v>1126.158110477934</v>
       </c>
       <c r="Y16" t="n">
-        <v>899.8153421676759</v>
+        <v>899.8153421676764</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1465.13242938375</v>
+        <v>1330.765328584525</v>
       </c>
       <c r="C17" t="n">
-        <v>1038.231699397051</v>
+        <v>903.8645985978253</v>
       </c>
       <c r="D17" t="n">
-        <v>614.9390785820508</v>
+        <v>903.8645985978253</v>
       </c>
       <c r="E17" t="n">
-        <v>614.9390785820508</v>
+        <v>477.8876587456829</v>
       </c>
       <c r="F17" t="n">
-        <v>456.1733101214593</v>
+        <v>52.76347693508309</v>
       </c>
       <c r="G17" t="n">
         <v>52.76347693508309</v>
@@ -5515,22 +5515,22 @@
         <v>53.67226329923857</v>
       </c>
       <c r="J17" t="n">
-        <v>101.8442156134247</v>
+        <v>493.5734343210509</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2864940569343</v>
+        <v>785.3422459638059</v>
       </c>
       <c r="L17" t="n">
-        <v>288.0787899608591</v>
+        <v>891.1345418677307</v>
       </c>
       <c r="M17" t="n">
-        <v>941.0268170325123</v>
+        <v>1013.995138638653</v>
       </c>
       <c r="N17" t="n">
-        <v>1593.974844104166</v>
+        <v>1139.593492173688</v>
       </c>
       <c r="O17" t="n">
-        <v>1815.207911252042</v>
+        <v>1256.025475914118</v>
       </c>
       <c r="P17" t="n">
         <v>1908.973502985771</v>
@@ -5542,25 +5542,25 @@
         <v>2638.173846754155</v>
       </c>
       <c r="S17" t="n">
-        <v>2554.981363573187</v>
+        <v>2567.670961753417</v>
       </c>
       <c r="T17" t="n">
-        <v>2554.981363573187</v>
+        <v>2567.670961753417</v>
       </c>
       <c r="U17" t="n">
-        <v>2296.700792507533</v>
+        <v>2567.670961753417</v>
       </c>
       <c r="V17" t="n">
-        <v>2296.700792507533</v>
+        <v>2567.670961753417</v>
       </c>
       <c r="W17" t="n">
-        <v>2296.700792507533</v>
+        <v>2567.670961753417</v>
       </c>
       <c r="X17" t="n">
-        <v>1884.98079367528</v>
+        <v>2155.950962921165</v>
       </c>
       <c r="Y17" t="n">
-        <v>1884.98079367528</v>
+        <v>1750.613692876055</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>53.53003909312066</v>
       </c>
       <c r="J18" t="n">
-        <v>79.16302375002763</v>
+        <v>371.2655162196187</v>
       </c>
       <c r="K18" t="n">
-        <v>135.6740363082087</v>
+        <v>1024.213543291272</v>
       </c>
       <c r="L18" t="n">
-        <v>219.1874795224988</v>
+        <v>1427.677062259118</v>
       </c>
       <c r="M18" t="n">
-        <v>420.9864565942056</v>
+        <v>1528.278802493551</v>
       </c>
       <c r="N18" t="n">
-        <v>1073.934483665859</v>
+        <v>1633.884576240978</v>
       </c>
       <c r="O18" t="n">
         <v>1726.882510737512</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1119.286946954702</v>
+        <v>737.9462330632873</v>
       </c>
       <c r="C19" t="n">
-        <v>947.3143838336185</v>
+        <v>565.9736699422033</v>
       </c>
       <c r="D19" t="n">
-        <v>783.9976109603892</v>
+        <v>556.6736064733306</v>
       </c>
       <c r="E19" t="n">
-        <v>617.7894051132428</v>
+        <v>390.4654006261841</v>
       </c>
       <c r="F19" t="n">
-        <v>445.9276308878032</v>
+        <v>218.6036264007445</v>
       </c>
       <c r="G19" t="n">
-        <v>280.0874814221418</v>
+        <v>52.76347693508309</v>
       </c>
       <c r="H19" t="n">
-        <v>139.9971237923334</v>
+        <v>52.76347693508309</v>
       </c>
       <c r="I19" t="n">
         <v>52.76347693508309</v>
@@ -5676,19 +5676,19 @@
         <v>139.1375592343536</v>
       </c>
       <c r="K19" t="n">
-        <v>413.1283978170634</v>
+        <v>413.1283978170633</v>
       </c>
       <c r="L19" t="n">
-        <v>828.5543219331879</v>
+        <v>828.554321933188</v>
       </c>
       <c r="M19" t="n">
         <v>1283.778348678823</v>
       </c>
       <c r="N19" t="n">
-        <v>1723.785405311111</v>
+        <v>1723.78540531111</v>
       </c>
       <c r="O19" t="n">
-        <v>2136.956758931063</v>
+        <v>2136.956758931062</v>
       </c>
       <c r="P19" t="n">
         <v>2476.965275239655</v>
@@ -5697,28 +5697,28 @@
         <v>2638.173846754155</v>
       </c>
       <c r="R19" t="n">
-        <v>2609.876987146478</v>
+        <v>2638.173846754155</v>
       </c>
       <c r="S19" t="n">
-        <v>2447.005979668195</v>
+        <v>2475.302839275872</v>
       </c>
       <c r="T19" t="n">
-        <v>2205.447591101823</v>
+        <v>2233.744450709499</v>
       </c>
       <c r="U19" t="n">
-        <v>1925.285878251587</v>
+        <v>1953.582737859264</v>
       </c>
       <c r="V19" t="n">
-        <v>1643.574410859616</v>
+        <v>1671.871270467293</v>
       </c>
       <c r="W19" t="n">
-        <v>1368.722007032129</v>
+        <v>1397.018866639806</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.722007032129</v>
+        <v>1154.454970085611</v>
       </c>
       <c r="Y19" t="n">
-        <v>1309.452915666768</v>
+        <v>928.112201775353</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1754.057949399525</v>
+        <v>1067.235813303389</v>
       </c>
       <c r="C20" t="n">
-        <v>1327.157219412825</v>
+        <v>1067.235813303389</v>
       </c>
       <c r="D20" t="n">
-        <v>903.8645985978253</v>
+        <v>643.9431924883888</v>
       </c>
       <c r="E20" t="n">
-        <v>477.8876587456829</v>
+        <v>643.9431924883888</v>
       </c>
       <c r="F20" t="n">
-        <v>52.76347693508309</v>
+        <v>218.819010677789</v>
       </c>
       <c r="G20" t="n">
-        <v>52.76347693508309</v>
+        <v>218.819010677789</v>
       </c>
       <c r="H20" t="n">
         <v>52.76347693508309</v>
@@ -5755,25 +5755,25 @@
         <v>493.5734343210509</v>
       </c>
       <c r="K20" t="n">
-        <v>574.0157127645605</v>
+        <v>1146.521461392704</v>
       </c>
       <c r="L20" t="n">
-        <v>679.8080086684853</v>
+        <v>1252.313757296629</v>
       </c>
       <c r="M20" t="n">
-        <v>1001.16076447147</v>
+        <v>1375.174354067551</v>
       </c>
       <c r="N20" t="n">
-        <v>1654.108791543124</v>
+        <v>1500.772707602587</v>
       </c>
       <c r="O20" t="n">
-        <v>2307.056818614777</v>
+        <v>1617.204691343016</v>
       </c>
       <c r="P20" t="n">
-        <v>2400.822410348506</v>
+        <v>2061.212161263522</v>
       </c>
       <c r="Q20" t="n">
-        <v>2463.408393454695</v>
+        <v>2615.647051732446</v>
       </c>
       <c r="R20" t="n">
         <v>2638.173846754155</v>
@@ -5788,16 +5788,16 @@
         <v>2638.173846754155</v>
       </c>
       <c r="V20" t="n">
-        <v>2585.626312523308</v>
+        <v>2280.684431880404</v>
       </c>
       <c r="W20" t="n">
-        <v>2585.626312523308</v>
+        <v>1884.293082180751</v>
       </c>
       <c r="X20" t="n">
-        <v>2173.906313691055</v>
+        <v>1472.573083348498</v>
       </c>
       <c r="Y20" t="n">
-        <v>2173.906313691055</v>
+        <v>1067.235813303389</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>52.76347693508309</v>
       </c>
       <c r="I21" t="n">
-        <v>76.9873449375325</v>
+        <v>53.53003909312066</v>
       </c>
       <c r="J21" t="n">
-        <v>102.6203295944395</v>
+        <v>79.16302375002765</v>
       </c>
       <c r="K21" t="n">
-        <v>159.1313421526206</v>
+        <v>732.1110508216808</v>
       </c>
       <c r="L21" t="n">
-        <v>320.3847163597727</v>
+        <v>815.6244940359709</v>
       </c>
       <c r="M21" t="n">
-        <v>420.9864565942056</v>
+        <v>916.2262342704038</v>
       </c>
       <c r="N21" t="n">
-        <v>1073.934483665859</v>
+        <v>1021.83200801783</v>
       </c>
       <c r="O21" t="n">
-        <v>1726.882510737512</v>
+        <v>1114.829942514364</v>
       </c>
       <c r="P21" t="n">
-        <v>1798.379928749181</v>
+        <v>1311.714883980313</v>
       </c>
       <c r="Q21" t="n">
         <v>1838.06218983415</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.6493734556107</v>
+        <v>900.8172405415708</v>
       </c>
       <c r="C22" t="n">
-        <v>537.6768103345266</v>
+        <v>728.8446774204867</v>
       </c>
       <c r="D22" t="n">
-        <v>537.6768103345266</v>
+        <v>728.8446774204867</v>
       </c>
       <c r="E22" t="n">
-        <v>445.9276308878032</v>
+        <v>562.6364715733403</v>
       </c>
       <c r="F22" t="n">
-        <v>445.9276308878032</v>
+        <v>390.7746973479007</v>
       </c>
       <c r="G22" t="n">
-        <v>280.0874814221418</v>
+        <v>224.9345478822392</v>
       </c>
       <c r="H22" t="n">
-        <v>139.9971237923334</v>
+        <v>84.84419025243088</v>
       </c>
       <c r="I22" t="n">
         <v>52.76347693508309</v>
@@ -5934,28 +5934,28 @@
         <v>2638.173846754155</v>
       </c>
       <c r="R22" t="n">
-        <v>2609.876987146478</v>
+        <v>2638.173846754155</v>
       </c>
       <c r="S22" t="n">
-        <v>2447.005979668195</v>
+        <v>2638.173846754155</v>
       </c>
       <c r="T22" t="n">
-        <v>2205.447591101823</v>
+        <v>2396.615458187783</v>
       </c>
       <c r="U22" t="n">
-        <v>1925.285878251587</v>
+        <v>2116.453745337547</v>
       </c>
       <c r="V22" t="n">
-        <v>1643.574410859616</v>
+        <v>1834.742277945576</v>
       </c>
       <c r="W22" t="n">
-        <v>1368.722007032129</v>
+        <v>1559.889874118089</v>
       </c>
       <c r="X22" t="n">
-        <v>1126.158110477934</v>
+        <v>1317.325977563894</v>
       </c>
       <c r="Y22" t="n">
-        <v>899.8153421676764</v>
+        <v>1090.983209253636</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>101.7694708008934</v>
       </c>
       <c r="J23" t="n">
-        <v>149.9414231150796</v>
+        <v>541.6706418227058</v>
       </c>
       <c r="K23" t="n">
-        <v>230.3837015585892</v>
+        <v>1373.028183028576</v>
       </c>
       <c r="L23" t="n">
-        <v>1303.729967090087</v>
+        <v>2227.536765025065</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.933615550505</v>
+        <v>2350.397361795987</v>
       </c>
       <c r="N23" t="n">
-        <v>3606.689854178343</v>
+        <v>2475.995715331022</v>
       </c>
       <c r="O23" t="n">
-        <v>4605.283537832049</v>
+        <v>3474.589398984728</v>
       </c>
       <c r="P23" t="n">
-        <v>4805.682785431249</v>
+        <v>4313.833878068514</v>
       </c>
       <c r="Q23" t="n">
         <v>4868.268768537438</v>
@@ -6065,31 +6065,31 @@
         <v>100.8606844367379</v>
       </c>
       <c r="I24" t="n">
-        <v>101.6272465947755</v>
+        <v>125.0845524391873</v>
       </c>
       <c r="J24" t="n">
-        <v>127.2602312516825</v>
+        <v>442.8200295656854</v>
       </c>
       <c r="K24" t="n">
-        <v>183.7712438098636</v>
+        <v>499.3310421238665</v>
       </c>
       <c r="L24" t="n">
-        <v>267.2846870241537</v>
+        <v>632.5679196445892</v>
       </c>
       <c r="M24" t="n">
-        <v>367.8864272585866</v>
+        <v>733.1696598790221</v>
       </c>
       <c r="N24" t="n">
-        <v>769.5603349061612</v>
+        <v>838.7754336264486</v>
       </c>
       <c r="O24" t="n">
-        <v>1774.979718239167</v>
+        <v>931.7733681229826</v>
       </c>
       <c r="P24" t="n">
-        <v>1846.477136250835</v>
+        <v>1741.02163596593</v>
       </c>
       <c r="Q24" t="n">
-        <v>1886.159397335805</v>
+        <v>1780.703897050899</v>
       </c>
       <c r="R24" t="n">
         <v>1892.977780087685</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1167.384154456357</v>
+        <v>786.0434405649421</v>
       </c>
       <c r="C25" t="n">
-        <v>995.4115913352733</v>
+        <v>614.0708774438581</v>
       </c>
       <c r="D25" t="n">
-        <v>832.094818462044</v>
+        <v>614.0708774438581</v>
       </c>
       <c r="E25" t="n">
-        <v>665.8866126148976</v>
+        <v>447.8626715967116</v>
       </c>
       <c r="F25" t="n">
-        <v>494.024838389458</v>
+        <v>276.000897371272</v>
       </c>
       <c r="G25" t="n">
-        <v>328.1846889237966</v>
+        <v>110.1607479056106</v>
       </c>
       <c r="H25" t="n">
-        <v>188.0943312939882</v>
+        <v>110.1607479056106</v>
       </c>
       <c r="I25" t="n">
         <v>100.8606844367379</v>
@@ -6171,28 +6171,28 @@
         <v>2686.271054255809</v>
       </c>
       <c r="R25" t="n">
-        <v>2657.974194648132</v>
+        <v>2686.271054255809</v>
       </c>
       <c r="S25" t="n">
-        <v>2657.974194648132</v>
+        <v>2523.400046777526</v>
       </c>
       <c r="T25" t="n">
-        <v>2657.974194648132</v>
+        <v>2281.841658211154</v>
       </c>
       <c r="U25" t="n">
-        <v>2377.812481797897</v>
+        <v>2001.679945360919</v>
       </c>
       <c r="V25" t="n">
-        <v>2096.101014405926</v>
+        <v>1719.968477968948</v>
       </c>
       <c r="W25" t="n">
-        <v>1826.456788032876</v>
+        <v>1445.116074141461</v>
       </c>
       <c r="X25" t="n">
-        <v>1583.892891478681</v>
+        <v>1202.552177587266</v>
       </c>
       <c r="Y25" t="n">
-        <v>1357.550123168423</v>
+        <v>976.2094092770078</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2493.916899821439</v>
+        <v>2493.916899821437</v>
       </c>
       <c r="C26" t="n">
-        <v>2067.016169834739</v>
+        <v>2067.016169834737</v>
       </c>
       <c r="D26" t="n">
-        <v>1643.723549019739</v>
+        <v>1643.723549019737</v>
       </c>
       <c r="E26" t="n">
-        <v>1217.746609167597</v>
+        <v>1217.746609167595</v>
       </c>
       <c r="F26" t="n">
-        <v>792.6224273569972</v>
+        <v>792.6224273569951</v>
       </c>
       <c r="G26" t="n">
-        <v>389.2125941706209</v>
+        <v>389.212594170619</v>
       </c>
       <c r="H26" t="n">
         <v>100.8606844367379</v>
@@ -6226,28 +6226,28 @@
         <v>101.7694708008934</v>
       </c>
       <c r="J26" t="n">
-        <v>541.6706418227056</v>
+        <v>149.9414231150796</v>
       </c>
       <c r="K26" t="n">
-        <v>622.1129202662153</v>
+        <v>981.2989643209495</v>
       </c>
       <c r="L26" t="n">
-        <v>1695.459185797713</v>
+        <v>2054.645229852448</v>
       </c>
       <c r="M26" t="n">
-        <v>1818.319782568636</v>
+        <v>2177.50582662337</v>
       </c>
       <c r="N26" t="n">
-        <v>2957.076021196473</v>
+        <v>3316.262065251208</v>
       </c>
       <c r="O26" t="n">
-        <v>3955.669704850179</v>
+        <v>3626.828057262479</v>
       </c>
       <c r="P26" t="n">
-        <v>4313.833878068514</v>
+        <v>4466.072536346264</v>
       </c>
       <c r="Q26" t="n">
-        <v>4868.268768537438</v>
+        <v>5020.507426815188</v>
       </c>
       <c r="R26" t="n">
         <v>5043.034221836897</v>
@@ -6256,22 +6256,22 @@
         <v>4959.841738655929</v>
       </c>
       <c r="T26" t="n">
-        <v>4742.983868629389</v>
+        <v>4742.983868629388</v>
       </c>
       <c r="U26" t="n">
-        <v>4484.703297563735</v>
+        <v>4484.703297563734</v>
       </c>
       <c r="V26" t="n">
-        <v>4127.213882689985</v>
+        <v>4127.213882689983</v>
       </c>
       <c r="W26" t="n">
-        <v>3730.822532990332</v>
+        <v>3730.822532990329</v>
       </c>
       <c r="X26" t="n">
-        <v>3319.102534158079</v>
+        <v>3319.102534158077</v>
       </c>
       <c r="Y26" t="n">
-        <v>2913.765264112969</v>
+        <v>2913.765264112967</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>100.8606844367379</v>
       </c>
       <c r="I27" t="n">
-        <v>101.6272465947755</v>
+        <v>125.0845524391873</v>
       </c>
       <c r="J27" t="n">
-        <v>127.2602312516825</v>
+        <v>442.8200295656854</v>
       </c>
       <c r="K27" t="n">
-        <v>183.7712438098636</v>
+        <v>499.3310421238665</v>
       </c>
       <c r="L27" t="n">
-        <v>267.2846870241537</v>
+        <v>582.8444853381566</v>
       </c>
       <c r="M27" t="n">
-        <v>465.9314655909302</v>
+        <v>683.4462255725895</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.981783742633</v>
+        <v>789.051999320016</v>
       </c>
       <c r="O27" t="n">
-        <v>1774.979718239167</v>
+        <v>882.0499338165499</v>
       </c>
       <c r="P27" t="n">
-        <v>1846.477136250835</v>
+        <v>1254.356591197062</v>
       </c>
       <c r="Q27" t="n">
-        <v>1886.159397335805</v>
+        <v>1780.703897050899</v>
       </c>
       <c r="R27" t="n">
         <v>1892.977780087685</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1167.384154456357</v>
+        <v>786.0434405649421</v>
       </c>
       <c r="C28" t="n">
-        <v>995.4115913352733</v>
+        <v>614.0708774438581</v>
       </c>
       <c r="D28" t="n">
-        <v>832.094818462044</v>
+        <v>450.7541045706288</v>
       </c>
       <c r="E28" t="n">
-        <v>665.8866126148976</v>
+        <v>284.5458987234823</v>
       </c>
       <c r="F28" t="n">
-        <v>494.024838389458</v>
+        <v>112.6841244980427</v>
       </c>
       <c r="G28" t="n">
-        <v>328.1846889237966</v>
+        <v>112.6841244980427</v>
       </c>
       <c r="H28" t="n">
-        <v>188.0943312939882</v>
+        <v>112.6841244980427</v>
       </c>
       <c r="I28" t="n">
         <v>100.8606844367379</v>
@@ -6408,28 +6408,28 @@
         <v>2686.271054255809</v>
       </c>
       <c r="R28" t="n">
-        <v>2657.974194648132</v>
+        <v>2686.271054255809</v>
       </c>
       <c r="S28" t="n">
-        <v>2657.974194648132</v>
+        <v>2523.400046777526</v>
       </c>
       <c r="T28" t="n">
-        <v>2416.41580608176</v>
+        <v>2281.841658211154</v>
       </c>
       <c r="U28" t="n">
-        <v>2136.254093231525</v>
+        <v>2001.679945360919</v>
       </c>
       <c r="V28" t="n">
-        <v>2101.309191860363</v>
+        <v>1719.968477968948</v>
       </c>
       <c r="W28" t="n">
-        <v>1826.456788032876</v>
+        <v>1445.116074141461</v>
       </c>
       <c r="X28" t="n">
-        <v>1583.892891478681</v>
+        <v>1202.552177587266</v>
       </c>
       <c r="Y28" t="n">
-        <v>1357.550123168423</v>
+        <v>976.2094092770078</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1217.746609167597</v>
       </c>
       <c r="F29" t="n">
-        <v>792.6224273569953</v>
+        <v>792.6224273569972</v>
       </c>
       <c r="G29" t="n">
-        <v>389.2125941706192</v>
+        <v>389.2125941706209</v>
       </c>
       <c r="H29" t="n">
         <v>100.8606844367379</v>
@@ -6463,22 +6463,22 @@
         <v>101.7694708008934</v>
       </c>
       <c r="J29" t="n">
-        <v>541.6706418227056</v>
+        <v>541.6706418227058</v>
       </c>
       <c r="K29" t="n">
-        <v>622.1129202662153</v>
+        <v>1373.028183028576</v>
       </c>
       <c r="L29" t="n">
-        <v>1695.459185797713</v>
+        <v>2446.374448560074</v>
       </c>
       <c r="M29" t="n">
-        <v>2859.662834258131</v>
+        <v>2842.246269158722</v>
       </c>
       <c r="N29" t="n">
-        <v>3998.419072885969</v>
+        <v>2967.844622693758</v>
       </c>
       <c r="O29" t="n">
-        <v>4711.91719369752</v>
+        <v>3966.438306347463</v>
       </c>
       <c r="P29" t="n">
         <v>4805.682785431249</v>
@@ -6539,28 +6539,28 @@
         <v>100.8606844367379</v>
       </c>
       <c r="I30" t="n">
-        <v>101.6272465947755</v>
+        <v>125.0845524391873</v>
       </c>
       <c r="J30" t="n">
-        <v>127.2602312516825</v>
+        <v>150.7175370960943</v>
       </c>
       <c r="K30" t="n">
-        <v>183.7712438098636</v>
+        <v>207.2285496542754</v>
       </c>
       <c r="L30" t="n">
-        <v>267.2846870241537</v>
+        <v>290.7419928685655</v>
       </c>
       <c r="M30" t="n">
-        <v>1446.738777941836</v>
+        <v>391.3437331029984</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.981783742633</v>
+        <v>496.949506850425</v>
       </c>
       <c r="O30" t="n">
-        <v>1774.979718239167</v>
+        <v>589.947441346959</v>
       </c>
       <c r="P30" t="n">
-        <v>1846.477136250835</v>
+        <v>1399.195709189906</v>
       </c>
       <c r="Q30" t="n">
         <v>1886.159397335805</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1167.384154456351</v>
+        <v>1028.607337119137</v>
       </c>
       <c r="C31" t="n">
-        <v>995.4115913352673</v>
+        <v>856.6347739980529</v>
       </c>
       <c r="D31" t="n">
-        <v>832.094818462038</v>
+        <v>693.3180011248236</v>
       </c>
       <c r="E31" t="n">
-        <v>665.8866126148915</v>
+        <v>527.1097952776771</v>
       </c>
       <c r="F31" t="n">
-        <v>494.0248383894519</v>
+        <v>355.2480210522375</v>
       </c>
       <c r="G31" t="n">
-        <v>328.1846889237905</v>
+        <v>189.4078715865761</v>
       </c>
       <c r="H31" t="n">
-        <v>188.0943312939882</v>
+        <v>100.8606844367379</v>
       </c>
       <c r="I31" t="n">
         <v>100.8606844367379</v>
@@ -6645,28 +6645,28 @@
         <v>2686.271054255809</v>
       </c>
       <c r="R31" t="n">
-        <v>2657.974194648132</v>
+        <v>2686.271054255809</v>
       </c>
       <c r="S31" t="n">
-        <v>2629.888356841449</v>
+        <v>2523.400046777526</v>
       </c>
       <c r="T31" t="n">
-        <v>2388.329968275076</v>
+        <v>2281.841658211154</v>
       </c>
       <c r="U31" t="n">
-        <v>2108.168255424841</v>
+        <v>2001.679945360919</v>
       </c>
       <c r="V31" t="n">
-        <v>1826.45678803287</v>
+        <v>1719.968477968948</v>
       </c>
       <c r="W31" t="n">
-        <v>1826.45678803287</v>
+        <v>1445.116074141461</v>
       </c>
       <c r="X31" t="n">
-        <v>1583.892891478675</v>
+        <v>1445.116074141461</v>
       </c>
       <c r="Y31" t="n">
-        <v>1357.550123168417</v>
+        <v>1218.773305831203</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2493.916899821437</v>
+        <v>2493.916899821439</v>
       </c>
       <c r="C32" t="n">
-        <v>2067.016169834737</v>
+        <v>2067.016169834739</v>
       </c>
       <c r="D32" t="n">
-        <v>1643.723549019737</v>
+        <v>1643.723549019739</v>
       </c>
       <c r="E32" t="n">
-        <v>1217.746609167595</v>
+        <v>1217.746609167597</v>
       </c>
       <c r="F32" t="n">
-        <v>792.6224273569951</v>
+        <v>792.6224273569972</v>
       </c>
       <c r="G32" t="n">
-        <v>389.212594170619</v>
+        <v>389.2125941706192</v>
       </c>
       <c r="H32" t="n">
         <v>100.8606844367379</v>
@@ -6700,25 +6700,25 @@
         <v>101.7694708008934</v>
       </c>
       <c r="J32" t="n">
-        <v>256.5750789805513</v>
+        <v>541.6706418227058</v>
       </c>
       <c r="K32" t="n">
-        <v>337.0173574240609</v>
+        <v>1373.028183028576</v>
       </c>
       <c r="L32" t="n">
-        <v>1410.363622955559</v>
+        <v>2227.536765025065</v>
       </c>
       <c r="M32" t="n">
-        <v>2574.567271415977</v>
+        <v>2350.397361795987</v>
       </c>
       <c r="N32" t="n">
-        <v>3713.323510043815</v>
+        <v>2475.995715331022</v>
       </c>
       <c r="O32" t="n">
-        <v>4711.91719369752</v>
+        <v>3474.589398984728</v>
       </c>
       <c r="P32" t="n">
-        <v>4805.682785431249</v>
+        <v>4313.833878068514</v>
       </c>
       <c r="Q32" t="n">
         <v>4868.268768537438</v>
@@ -6730,22 +6730,22 @@
         <v>4959.841738655929</v>
       </c>
       <c r="T32" t="n">
-        <v>4742.983868629388</v>
+        <v>4742.983868629389</v>
       </c>
       <c r="U32" t="n">
-        <v>4484.703297563734</v>
+        <v>4484.703297563735</v>
       </c>
       <c r="V32" t="n">
-        <v>4127.213882689983</v>
+        <v>4127.213882689985</v>
       </c>
       <c r="W32" t="n">
-        <v>3730.822532990329</v>
+        <v>3730.822532990332</v>
       </c>
       <c r="X32" t="n">
-        <v>3319.102534158077</v>
+        <v>3319.102534158079</v>
       </c>
       <c r="Y32" t="n">
-        <v>2913.765264112967</v>
+        <v>2913.765264112969</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>125.0845524391873</v>
       </c>
       <c r="J33" t="n">
-        <v>150.7175370960943</v>
+        <v>442.8200295656854</v>
       </c>
       <c r="K33" t="n">
-        <v>207.2285496542754</v>
+        <v>1111.991210187206</v>
       </c>
       <c r="L33" t="n">
-        <v>290.7419928685655</v>
+        <v>1195.504653401496</v>
       </c>
       <c r="M33" t="n">
-        <v>465.9314655909302</v>
+        <v>1296.106393635929</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.981783742633</v>
+        <v>1401.712167383356</v>
       </c>
       <c r="O33" t="n">
-        <v>1774.979718239167</v>
+        <v>1494.71010187989</v>
       </c>
       <c r="P33" t="n">
         <v>1846.477136250835</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>914.3103581334457</v>
+        <v>786.0434405649421</v>
       </c>
       <c r="C34" t="n">
-        <v>742.3377950123617</v>
+        <v>614.0708774438581</v>
       </c>
       <c r="D34" t="n">
-        <v>579.0210221391324</v>
+        <v>604.7708139749855</v>
       </c>
       <c r="E34" t="n">
-        <v>412.8128162919859</v>
+        <v>438.562608127839</v>
       </c>
       <c r="F34" t="n">
-        <v>240.9510420665463</v>
+        <v>266.7008339023994</v>
       </c>
       <c r="G34" t="n">
-        <v>240.9510420665463</v>
+        <v>100.8606844367379</v>
       </c>
       <c r="H34" t="n">
         <v>100.8606844367379</v>
@@ -6885,25 +6885,25 @@
         <v>2686.271054255809</v>
       </c>
       <c r="S34" t="n">
-        <v>2651.66696434603</v>
+        <v>2523.400046777526</v>
       </c>
       <c r="T34" t="n">
-        <v>2410.108575779657</v>
+        <v>2281.841658211154</v>
       </c>
       <c r="U34" t="n">
-        <v>2129.946862929422</v>
+        <v>2001.679945360919</v>
       </c>
       <c r="V34" t="n">
-        <v>1848.235395537451</v>
+        <v>1719.968477968948</v>
       </c>
       <c r="W34" t="n">
-        <v>1573.382991709964</v>
+        <v>1445.116074141461</v>
       </c>
       <c r="X34" t="n">
-        <v>1330.819095155769</v>
+        <v>1202.552177587266</v>
       </c>
       <c r="Y34" t="n">
-        <v>1104.476326845511</v>
+        <v>976.2094092770078</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2113.062674940874</v>
+        <v>1786.303672426923</v>
       </c>
       <c r="C35" t="n">
-        <v>1686.161944954174</v>
+        <v>1359.402942440224</v>
       </c>
       <c r="D35" t="n">
-        <v>1262.869324139174</v>
+        <v>936.1103216252238</v>
       </c>
       <c r="E35" t="n">
-        <v>836.8923842870319</v>
+        <v>510.1333817730814</v>
       </c>
       <c r="F35" t="n">
-        <v>488.4190331488578</v>
+        <v>85.00919996248159</v>
       </c>
       <c r="G35" t="n">
         <v>85.00919996248159</v>
@@ -6940,25 +6940,25 @@
         <v>134.0899386408232</v>
       </c>
       <c r="K35" t="n">
-        <v>214.5322170843328</v>
+        <v>965.4474798466931</v>
       </c>
       <c r="L35" t="n">
-        <v>505.8342885474601</v>
+        <v>2017.436329382403</v>
       </c>
       <c r="M35" t="n">
-        <v>1557.82313808317</v>
+        <v>2592.223496274196</v>
       </c>
       <c r="N35" t="n">
-        <v>1683.421491618205</v>
+        <v>2717.821849809231</v>
       </c>
       <c r="O35" t="n">
-        <v>2682.01517527191</v>
+        <v>2834.25383354966</v>
       </c>
       <c r="P35" t="n">
-        <v>3521.259654355696</v>
+        <v>3673.498312633446</v>
       </c>
       <c r="Q35" t="n">
-        <v>4075.69454482462</v>
+        <v>4227.93320310237</v>
       </c>
       <c r="R35" t="n">
         <v>4250.459998124079</v>
@@ -6979,10 +6979,10 @@
         <v>2938.248309277514</v>
       </c>
       <c r="X35" t="n">
-        <v>2938.248309277514</v>
+        <v>2611.489306763563</v>
       </c>
       <c r="Y35" t="n">
-        <v>2532.911039232404</v>
+        <v>2206.152036718453</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>134.866052621838</v>
       </c>
       <c r="K36" t="n">
-        <v>191.3770651800191</v>
+        <v>804.0372332433587</v>
       </c>
       <c r="L36" t="n">
-        <v>274.8905083943092</v>
+        <v>887.5506764576488</v>
       </c>
       <c r="M36" t="n">
-        <v>614.1414497326671</v>
+        <v>988.1524166920817</v>
       </c>
       <c r="N36" t="n">
-        <v>1666.130299268377</v>
+        <v>1093.758190439508</v>
       </c>
       <c r="O36" t="n">
-        <v>1759.12823376491</v>
+        <v>1186.756124936042</v>
       </c>
       <c r="P36" t="n">
-        <v>1830.625651776579</v>
+        <v>1258.253542947711</v>
       </c>
       <c r="Q36" t="n">
-        <v>1870.307912861548</v>
+        <v>1784.600848801548</v>
       </c>
       <c r="R36" t="n">
         <v>1877.126295613429</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1064.299023124851</v>
+        <v>741.8950964830092</v>
       </c>
       <c r="C37" t="n">
-        <v>892.3264600037668</v>
+        <v>569.9225333619252</v>
       </c>
       <c r="D37" t="n">
-        <v>729.0096871305375</v>
+        <v>569.9225333619252</v>
       </c>
       <c r="E37" t="n">
-        <v>562.801481283391</v>
+        <v>569.9225333619252</v>
       </c>
       <c r="F37" t="n">
-        <v>390.9397070579514</v>
+        <v>398.0607591364856</v>
       </c>
       <c r="G37" t="n">
-        <v>225.09955759229</v>
+        <v>232.2206096708241</v>
       </c>
       <c r="H37" t="n">
-        <v>85.00919996248159</v>
+        <v>92.13025204101578</v>
       </c>
       <c r="I37" t="n">
         <v>85.00919996248159</v>
@@ -7122,25 +7122,25 @@
         <v>2642.122710173876</v>
       </c>
       <c r="S37" t="n">
-        <v>2642.122710173876</v>
+        <v>2479.251702695593</v>
       </c>
       <c r="T37" t="n">
-        <v>2560.097240771062</v>
+        <v>2237.693314129221</v>
       </c>
       <c r="U37" t="n">
-        <v>2279.935527920827</v>
+        <v>1957.531601278986</v>
       </c>
       <c r="V37" t="n">
-        <v>1998.224060528856</v>
+        <v>1675.820133887015</v>
       </c>
       <c r="W37" t="n">
-        <v>1723.371656701369</v>
+        <v>1400.967730059528</v>
       </c>
       <c r="X37" t="n">
-        <v>1480.807760147174</v>
+        <v>1158.403833505333</v>
       </c>
       <c r="Y37" t="n">
-        <v>1254.464991836916</v>
+        <v>932.0610651950749</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2259.673600381784</v>
+        <v>2058.832090982371</v>
       </c>
       <c r="C38" t="n">
-        <v>1832.772870395084</v>
+        <v>1631.931360995672</v>
       </c>
       <c r="D38" t="n">
-        <v>1627.872064545481</v>
+        <v>1208.638740180672</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.895124693339</v>
+        <v>782.6618003285295</v>
       </c>
       <c r="F38" t="n">
-        <v>776.7709428827391</v>
+        <v>373.3611096963629</v>
       </c>
       <c r="G38" t="n">
         <v>373.3611096963629</v>
       </c>
       <c r="H38" t="n">
-        <v>85.0091999624816</v>
+        <v>85.00919996248159</v>
       </c>
       <c r="I38" t="n">
-        <v>85.91798632663708</v>
+        <v>85.91798632663706</v>
       </c>
       <c r="J38" t="n">
-        <v>134.0899386408232</v>
+        <v>525.8191573484494</v>
       </c>
       <c r="K38" t="n">
-        <v>535.2123500542896</v>
+        <v>1357.176698554319</v>
       </c>
       <c r="L38" t="n">
-        <v>1587.201199589999</v>
+        <v>1462.968994458244</v>
       </c>
       <c r="M38" t="n">
-        <v>1710.061796360921</v>
+        <v>1585.829591229166</v>
       </c>
       <c r="N38" t="n">
-        <v>1835.660149895957</v>
+        <v>1711.427944764202</v>
       </c>
       <c r="O38" t="n">
-        <v>2834.253833549662</v>
+        <v>2710.021628417907</v>
       </c>
       <c r="P38" t="n">
-        <v>3673.498312633447</v>
+        <v>3549.266107501693</v>
       </c>
       <c r="Q38" t="n">
-        <v>4227.933203102371</v>
+        <v>4103.700997970617</v>
       </c>
       <c r="R38" t="n">
-        <v>4250.45999812408</v>
+        <v>4250.459998124079</v>
       </c>
       <c r="S38" t="n">
-        <v>4250.45999812408</v>
+        <v>4167.267514943111</v>
       </c>
       <c r="T38" t="n">
-        <v>4250.45999812408</v>
+        <v>3950.40964491657</v>
       </c>
       <c r="U38" t="n">
-        <v>4250.45999812408</v>
+        <v>3692.129073850917</v>
       </c>
       <c r="V38" t="n">
-        <v>3892.97058325033</v>
+        <v>3692.129073850917</v>
       </c>
       <c r="W38" t="n">
-        <v>3496.579233550677</v>
+        <v>3295.737724151264</v>
       </c>
       <c r="X38" t="n">
-        <v>3084.859234718424</v>
+        <v>2884.017725319011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2679.521964673314</v>
+        <v>2478.680455273902</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>133.5835669315976</v>
       </c>
       <c r="H39" t="n">
-        <v>85.0091999624816</v>
+        <v>85.00919996248159</v>
       </c>
       <c r="I39" t="n">
-        <v>85.77576212051918</v>
+        <v>85.77576212051916</v>
       </c>
       <c r="J39" t="n">
-        <v>111.4087467774262</v>
+        <v>111.4087467774261</v>
       </c>
       <c r="K39" t="n">
-        <v>167.9197593356073</v>
+        <v>780.5799273989469</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4332025498974</v>
+        <v>864.093370613237</v>
       </c>
       <c r="M39" t="n">
-        <v>614.1414497326668</v>
+        <v>1073.859480752082</v>
       </c>
       <c r="N39" t="n">
-        <v>1666.130299268377</v>
+        <v>1179.465254499508</v>
       </c>
       <c r="O39" t="n">
-        <v>1759.12823376491</v>
+        <v>1272.463188996042</v>
       </c>
       <c r="P39" t="n">
-        <v>1830.625651776579</v>
+        <v>1343.960607007711</v>
       </c>
       <c r="Q39" t="n">
         <v>1870.307912861548</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2321.935524825536</v>
+        <v>985.6925205164396</v>
       </c>
       <c r="C40" t="n">
-        <v>2149.962961704452</v>
+        <v>813.7199573953556</v>
       </c>
       <c r="D40" t="n">
-        <v>1986.646188831223</v>
+        <v>650.4031845221263</v>
       </c>
       <c r="E40" t="n">
-        <v>1820.437982984076</v>
+        <v>484.1949786749798</v>
       </c>
       <c r="F40" t="n">
-        <v>1820.437982984076</v>
+        <v>312.3332044495402</v>
       </c>
       <c r="G40" t="n">
-        <v>1665.049628305008</v>
+        <v>312.3332044495402</v>
       </c>
       <c r="H40" t="n">
-        <v>1665.049628305008</v>
+        <v>172.2428468197319</v>
       </c>
       <c r="I40" t="n">
-        <v>1665.049628305008</v>
+        <v>85.00919996248159</v>
       </c>
       <c r="J40" t="n">
-        <v>1751.423710604279</v>
+        <v>171.3832822617521</v>
       </c>
       <c r="K40" t="n">
-        <v>2025.414549186989</v>
+        <v>445.3741208444619</v>
       </c>
       <c r="L40" t="n">
-        <v>2440.840473303113</v>
+        <v>860.8000449605863</v>
       </c>
       <c r="M40" t="n">
-        <v>2896.064500048748</v>
+        <v>1316.024071706222</v>
       </c>
       <c r="N40" t="n">
-        <v>3336.071556681036</v>
+        <v>1756.031128338509</v>
       </c>
       <c r="O40" t="n">
-        <v>3749.242910300988</v>
+        <v>2169.202481958461</v>
       </c>
       <c r="P40" t="n">
-        <v>4089.25142660958</v>
+        <v>2509.210998267054</v>
       </c>
       <c r="Q40" t="n">
-        <v>4250.45999812408</v>
+        <v>2670.419569781553</v>
       </c>
       <c r="R40" t="n">
-        <v>4222.163138516403</v>
+        <v>2642.122710173876</v>
       </c>
       <c r="S40" t="n">
-        <v>4059.29213103812</v>
+        <v>2479.251702695593</v>
       </c>
       <c r="T40" t="n">
-        <v>3817.733742471748</v>
+        <v>2237.693314129221</v>
       </c>
       <c r="U40" t="n">
-        <v>3537.572029621512</v>
+        <v>2201.329025312416</v>
       </c>
       <c r="V40" t="n">
-        <v>3255.860562229541</v>
+        <v>1919.617557920445</v>
       </c>
       <c r="W40" t="n">
-        <v>2981.008158402055</v>
+        <v>1644.765154092958</v>
       </c>
       <c r="X40" t="n">
-        <v>2738.44426184786</v>
+        <v>1402.201257538763</v>
       </c>
       <c r="Y40" t="n">
-        <v>2512.101493537602</v>
+        <v>1175.858489228505</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2478.065415347181</v>
+        <v>2189.7135056133</v>
       </c>
       <c r="C41" t="n">
-        <v>2051.164685360481</v>
+        <v>1762.8127756266</v>
       </c>
       <c r="D41" t="n">
-        <v>1627.872064545481</v>
+        <v>1339.5201548116</v>
       </c>
       <c r="E41" t="n">
-        <v>1201.895124693339</v>
+        <v>913.5432149594576</v>
       </c>
       <c r="F41" t="n">
-        <v>776.7709428827391</v>
+        <v>488.4190331488578</v>
       </c>
       <c r="G41" t="n">
-        <v>373.3611096963629</v>
+        <v>85.0091999624816</v>
       </c>
       <c r="H41" t="n">
         <v>85.0091999624816</v>
@@ -7417,16 +7417,16 @@
         <v>1357.176698554319</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.968994458244</v>
+        <v>1587.201199589998</v>
       </c>
       <c r="M41" t="n">
-        <v>1585.829591229166</v>
+        <v>1710.06179636092</v>
       </c>
       <c r="N41" t="n">
-        <v>1835.660149895957</v>
+        <v>1835.660149895956</v>
       </c>
       <c r="O41" t="n">
-        <v>2834.253833549662</v>
+        <v>2834.253833549661</v>
       </c>
       <c r="P41" t="n">
         <v>3673.498312633447</v>
@@ -7447,16 +7447,16 @@
         <v>3692.129073850918</v>
       </c>
       <c r="V41" t="n">
-        <v>3334.639658977168</v>
+        <v>3692.129073850918</v>
       </c>
       <c r="W41" t="n">
-        <v>2938.248309277515</v>
+        <v>3295.737724151265</v>
       </c>
       <c r="X41" t="n">
-        <v>2526.528310445262</v>
+        <v>3014.89913994994</v>
       </c>
       <c r="Y41" t="n">
-        <v>2478.065415347181</v>
+        <v>2609.56186990483</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>85.0091999624816</v>
       </c>
       <c r="I42" t="n">
-        <v>85.77576212051918</v>
+        <v>109.233067964931</v>
       </c>
       <c r="J42" t="n">
-        <v>368.511220212769</v>
+        <v>426.9685450914291</v>
       </c>
       <c r="K42" t="n">
-        <v>425.0222327709502</v>
+        <v>483.4795576496102</v>
       </c>
       <c r="L42" t="n">
-        <v>508.5356759852402</v>
+        <v>566.9930008639003</v>
       </c>
       <c r="M42" t="n">
-        <v>1560.52452552095</v>
+        <v>667.5947410983332</v>
       </c>
       <c r="N42" t="n">
-        <v>1666.130299268377</v>
+        <v>773.2005148457597</v>
       </c>
       <c r="O42" t="n">
-        <v>1759.12823376491</v>
+        <v>866.1984493422937</v>
       </c>
       <c r="P42" t="n">
-        <v>1830.625651776579</v>
+        <v>1675.446717185241</v>
       </c>
       <c r="Q42" t="n">
-        <v>1870.307912861548</v>
+        <v>1764.852412576643</v>
       </c>
       <c r="R42" t="n">
         <v>1877.126295613429</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>892.4372488994112</v>
+        <v>985.6925205164396</v>
       </c>
       <c r="C43" t="n">
-        <v>720.4646857783272</v>
+        <v>813.7199573953556</v>
       </c>
       <c r="D43" t="n">
-        <v>557.1479129050979</v>
+        <v>650.4031845221263</v>
       </c>
       <c r="E43" t="n">
-        <v>390.9397070579514</v>
+        <v>484.1949786749798</v>
       </c>
       <c r="F43" t="n">
-        <v>390.9397070579514</v>
+        <v>312.3332044495402</v>
       </c>
       <c r="G43" t="n">
-        <v>225.09955759229</v>
+        <v>312.3332044495402</v>
       </c>
       <c r="H43" t="n">
-        <v>85.0091999624816</v>
+        <v>172.2428468197319</v>
       </c>
       <c r="I43" t="n">
         <v>85.0091999624816</v>
@@ -7596,25 +7596,25 @@
         <v>2642.122710173876</v>
       </c>
       <c r="S43" t="n">
-        <v>2479.251702695593</v>
+        <v>2642.122710173876</v>
       </c>
       <c r="T43" t="n">
-        <v>2237.693314129221</v>
+        <v>2481.490738162651</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.531601278986</v>
+        <v>2201.329025312416</v>
       </c>
       <c r="V43" t="n">
-        <v>1675.820133887015</v>
+        <v>1919.617557920445</v>
       </c>
       <c r="W43" t="n">
-        <v>1551.50988247593</v>
+        <v>1644.765154092958</v>
       </c>
       <c r="X43" t="n">
-        <v>1308.945985921735</v>
+        <v>1402.201257538763</v>
       </c>
       <c r="Y43" t="n">
-        <v>1082.603217611477</v>
+        <v>1175.858489228505</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2478.065415347181</v>
+        <v>1764.5893238027</v>
       </c>
       <c r="C44" t="n">
-        <v>2051.164685360481</v>
+        <v>1337.688593816</v>
       </c>
       <c r="D44" t="n">
-        <v>1627.872064545481</v>
+        <v>914.3959730010002</v>
       </c>
       <c r="E44" t="n">
-        <v>1201.895124693339</v>
+        <v>488.4190331488578</v>
       </c>
       <c r="F44" t="n">
-        <v>776.7709428827391</v>
+        <v>488.4190331488578</v>
       </c>
       <c r="G44" t="n">
-        <v>373.3611096963629</v>
+        <v>85.0091999624816</v>
       </c>
       <c r="H44" t="n">
         <v>85.0091999624816</v>
@@ -7651,25 +7651,25 @@
         <v>525.8191573484494</v>
       </c>
       <c r="K44" t="n">
-        <v>1280.691237404346</v>
+        <v>1265.135391689814</v>
       </c>
       <c r="L44" t="n">
-        <v>2332.680086940055</v>
+        <v>2317.124241225524</v>
       </c>
       <c r="M44" t="n">
-        <v>2455.540683710978</v>
+        <v>2439.984837996446</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.139037246013</v>
+        <v>2565.583191531481</v>
       </c>
       <c r="O44" t="n">
-        <v>3579.732720899718</v>
+        <v>2682.01517527191</v>
       </c>
       <c r="P44" t="n">
-        <v>3673.498312633447</v>
+        <v>3521.259654355696</v>
       </c>
       <c r="Q44" t="n">
-        <v>4227.933203102371</v>
+        <v>4075.694544824621</v>
       </c>
       <c r="R44" t="n">
         <v>4250.45999812408</v>
@@ -7678,22 +7678,22 @@
         <v>4167.267514943112</v>
       </c>
       <c r="T44" t="n">
-        <v>4167.267514943112</v>
+        <v>4013.65629261065</v>
       </c>
       <c r="U44" t="n">
-        <v>3908.986943877458</v>
+        <v>3755.375721544996</v>
       </c>
       <c r="V44" t="n">
-        <v>3551.497529003707</v>
+        <v>3397.886306671246</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.106179304054</v>
+        <v>3001.494956971592</v>
       </c>
       <c r="X44" t="n">
-        <v>2883.402685392291</v>
+        <v>2589.77495813934</v>
       </c>
       <c r="Y44" t="n">
-        <v>2478.065415347181</v>
+        <v>2184.43768809423</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>85.0091999624816</v>
       </c>
       <c r="I45" t="n">
-        <v>85.77576212051918</v>
+        <v>109.233067964931</v>
       </c>
       <c r="J45" t="n">
-        <v>368.511220212769</v>
+        <v>426.9685450914291</v>
       </c>
       <c r="K45" t="n">
-        <v>425.0222327709502</v>
+        <v>784.2887970184532</v>
       </c>
       <c r="L45" t="n">
-        <v>508.5356759852402</v>
+        <v>867.8022402327433</v>
       </c>
       <c r="M45" t="n">
-        <v>1560.52452552095</v>
+        <v>968.4039804671762</v>
       </c>
       <c r="N45" t="n">
-        <v>1666.130299268377</v>
+        <v>1074.009754214603</v>
       </c>
       <c r="O45" t="n">
-        <v>1759.12823376491</v>
+        <v>1167.007688711137</v>
       </c>
       <c r="P45" t="n">
-        <v>1830.625651776579</v>
+        <v>1238.505106722805</v>
       </c>
       <c r="Q45" t="n">
-        <v>1870.307912861548</v>
+        <v>1764.852412576643</v>
       </c>
       <c r="R45" t="n">
         <v>1877.126295613429</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>904.7661039612922</v>
+        <v>1151.532669982101</v>
       </c>
       <c r="C46" t="n">
-        <v>732.7935408402082</v>
+        <v>979.5601068610171</v>
       </c>
       <c r="D46" t="n">
-        <v>569.4767679669789</v>
+        <v>816.2433339877878</v>
       </c>
       <c r="E46" t="n">
-        <v>484.1949786749798</v>
+        <v>650.0351281406413</v>
       </c>
       <c r="F46" t="n">
-        <v>312.3332044495402</v>
+        <v>478.1733539152017</v>
       </c>
       <c r="G46" t="n">
         <v>312.3332044495402</v>
@@ -7830,28 +7830,28 @@
         <v>2670.419569781553</v>
       </c>
       <c r="R46" t="n">
-        <v>2642.122710173876</v>
+        <v>2670.419569781553</v>
       </c>
       <c r="S46" t="n">
-        <v>2642.122710173876</v>
+        <v>2507.548562303271</v>
       </c>
       <c r="T46" t="n">
-        <v>2400.564321607504</v>
+        <v>2265.990173736898</v>
       </c>
       <c r="U46" t="n">
-        <v>2120.402608757269</v>
+        <v>2265.990173736898</v>
       </c>
       <c r="V46" t="n">
-        <v>1838.691141365298</v>
+        <v>1984.278706344927</v>
       </c>
       <c r="W46" t="n">
-        <v>1563.838737537811</v>
+        <v>1810.605303558619</v>
       </c>
       <c r="X46" t="n">
-        <v>1321.274840983616</v>
+        <v>1568.041407004425</v>
       </c>
       <c r="Y46" t="n">
-        <v>1094.932072673358</v>
+        <v>1341.698638694167</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>359.7783135124</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
         <v>499.7119481929572</v>
@@ -7990,10 +7990,10 @@
         <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>480.0371081600191</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8002,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
@@ -8069,19 +8069,19 @@
         <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>464.528326530402</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>60.327324507274</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8218,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>479.2295883411379</v>
       </c>
       <c r="L5" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>361.4046720736148</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>498.9752675705655</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>458.4075134701064</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>481.7770299789515</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>362.152477837778</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345437</v>
       </c>
       <c r="M9" t="n">
-        <v>458.3324042602125</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8552,10 +8552,10 @@
         <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>170.5153675464292</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>24.38812337579639</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>578.2886349779228</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>552.6825567350793</v>
       </c>
       <c r="M11" t="n">
-        <v>535.4418487886172</v>
+        <v>535.4418487886173</v>
       </c>
       <c r="N11" t="n">
-        <v>532.6764379157756</v>
+        <v>532.6764379157758</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>49.99420161863995</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,16 +8768,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.13335673674068</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>602.4616308216891</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>141.791847381583</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>587.323847535338</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>49.99420161864008</v>
+        <v>578.2886349779229</v>
       </c>
       <c r="L14" t="n">
-        <v>552.6825567350792</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>535.4418487886172</v>
+        <v>139.5166925131218</v>
       </c>
       <c r="N14" t="n">
-        <v>532.6764379157758</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>541.9353973042668</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>564.8307427655801</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>602.4616308216891</v>
       </c>
       <c r="L15" t="n">
-        <v>575.1864483407709</v>
+        <v>126.6540640952315</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>34.49200401501048</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>587.323847535338</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>213.4611446457024</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>535.4418487886172</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>532.6764379157756</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>105.8596802095423</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>564.8307427655799</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9242,22 +9242,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>602.461630821689</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>323.1818947005618</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2194311487615</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>552.8709629537643</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>565.6061541162821</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>578.2886349779228</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>200.4971303354171</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>532.6764379157758</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>541.9353973042665</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>353.7796749361381</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>602.461630821689</v>
       </c>
       <c r="L21" t="n">
-        <v>78.52518282107273</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>552.8709629537643</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>565.6061541162821</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>126.6540640952322</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>756.2790768611762</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>107.7107635004757</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>50.22569121861878</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>299.0587211112606</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>196.0949578493348</v>
       </c>
       <c r="P26" t="n">
-        <v>267.0692742268745</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>99.03539225489253</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>303.8477165341849</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>275.7689129572996</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>603.0971081526482</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>130.946699043808</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>451.799421273666</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>107.7107635004765</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>756.2790768611762</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,25 +10427,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>75.34114392720379</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>283.1006225851282</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>187.383611675962</v>
+        <v>955.7540945775603</v>
       </c>
       <c r="M35" t="n">
-        <v>938.5133866310985</v>
+        <v>456.4914849705768</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0597990948737</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>955.9425007962454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.572791979798</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>323.9193262322796</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>955.7540945775606</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>125.4870758906602</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>264.7540474225622</v>
+        <v>110.2670403074867</v>
       </c>
       <c r="N39" t="n">
-        <v>955.9425007962457</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>125.4870758906607</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>125.4870758906615</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>259.6994681165079</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>960.9970801022998</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>50.22569121861875</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>681.2422238508957</v>
+        <v>665.5292483816718</v>
       </c>
       <c r="L44" t="n">
         <v>955.7540945775606</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>259.6994681165079</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>303.8477165341849</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>960.9970801022998</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>399.3757348545124</v>
+        <v>2.522392823366317</v>
       </c>
       <c r="H11" t="n">
         <v>285.4683906365424</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.36055834915831</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>214.6892913262747</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6977653549972</v>
       </c>
       <c r="V11" t="n">
-        <v>135.6214450435858</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.4234269632883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.0138910116004</v>
       </c>
       <c r="S13" t="n">
-        <v>128.181102042368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.360095721733</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>225.2192677585861</v>
+        <v>285.4683906365424</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.36055834915831</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.6892913262747</v>
+        <v>144.8610803896984</v>
       </c>
       <c r="U14" t="n">
         <v>255.6977653549972</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23664,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>76.81332600442161</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.1817479710048</v>
+        <v>154.6337635867482</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.36131038867778</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>263.6948292165081</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>399.3757348545124</v>
       </c>
       <c r="H17" t="n">
         <v>285.4683906365424</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>12.56270219842867</v>
       </c>
       <c r="T17" t="n">
         <v>214.6892913262747</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6977653549972</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>152.476542310313</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.6894540535102</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.36131038867778</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>28.01389101160041</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.402940175448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>399.3757348545124</v>
       </c>
       <c r="H20" t="n">
-        <v>285.4683906365424</v>
+        <v>121.0734122312635</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>255.6977653549972</v>
       </c>
       <c r="V20" t="n">
-        <v>301.8924618364746</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,10 +24135,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>73.71443613641874</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>54.60140420450347</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>28.01389101160041</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>161.2422974035</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.6894540535102</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>77.15424755449386</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>28.01389101160041</v>
       </c>
       <c r="S25" t="n">
-        <v>161.2422974035</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.1428046807087</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>5.15609567989236</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.1817479710048</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.6894540535102</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>74.65610472798603</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.01389101160041</v>
       </c>
       <c r="S28" t="n">
-        <v>161.2422974035</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>244.2989003606011</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>51.02773877517049</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.36131038867778</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>28.01389101160041</v>
       </c>
       <c r="S31" t="n">
-        <v>133.4373179748832</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>152.4765423103131</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.1817479710048</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.6894540535102</v>
       </c>
       <c r="I34" t="n">
         <v>86.36131038867778</v>
@@ -25125,7 +25125,7 @@
         <v>28.01389101160041</v>
       </c>
       <c r="S34" t="n">
-        <v>126.9842483928181</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>75.88432236570145</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>399.3757348545124</v>
       </c>
       <c r="H35" t="n">
         <v>285.4683906365424</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>84.11138635511907</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.36131038867778</v>
+        <v>79.31146883092893</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>161.2422974035</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>157.9375899719229</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>216.2078968157429</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>15.66525626664884</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>399.3757348545124</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.36055834915831</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.6892913262747</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6977653549972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.34727683872725</v>
+        <v>164.1817479710048</v>
       </c>
       <c r="H40" t="n">
-        <v>138.6894540535102</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>86.36131038867778</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>241.3594497930959</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.4683906365424</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>129.5726004846181</v>
       </c>
       <c r="Y41" t="n">
-        <v>353.3056311975585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.1817479710048</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.36131038867778</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>161.2422974035</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>80.11715238959587</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>149.0367308922378</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.4683906365424</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.6892913262747</v>
+        <v>62.6141812171376</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>138.616339871284</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>80.1171523895959</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.1817479710048</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>28.01389101160041</v>
       </c>
       <c r="S46" t="n">
-        <v>161.2422974035</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.360095721733</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>100.1672110307676</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482854.9860246236</v>
+        <v>482854.9860246235</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>729785.5753620019</v>
+        <v>729785.5753620018</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>729785.5753620017</v>
+        <v>729785.5753620018</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648404.2102803444</v>
+        <v>648404.2102803442</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>648404.2102803446</v>
+        <v>648404.2102803444</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>648404.2102803446</v>
+        <v>648404.2102803445</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>648404.2102803446</v>
+        <v>648404.2102803445</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>378587.7342072558</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.734207256</v>
       </c>
       <c r="E2" t="n">
-        <v>251541.7544943972</v>
+        <v>251541.7544943971</v>
       </c>
       <c r="F2" t="n">
         <v>251541.7544943972</v>
       </c>
       <c r="G2" t="n">
-        <v>251541.7544943972</v>
+        <v>251541.7544943971</v>
       </c>
       <c r="H2" t="n">
-        <v>251541.7544943972</v>
+        <v>251541.7544943973</v>
       </c>
       <c r="I2" t="n">
+        <v>372261.2915221359</v>
+      </c>
+      <c r="J2" t="n">
         <v>372261.2915221361</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>372261.2915221363</v>
-      </c>
-      <c r="K2" t="n">
-        <v>372261.2915221362</v>
       </c>
       <c r="L2" t="n">
         <v>372261.291522136</v>
@@ -26349,13 +26349,13 @@
         <v>332475.533339215</v>
       </c>
       <c r="N2" t="n">
-        <v>332475.5333392152</v>
+        <v>332475.5333392149</v>
       </c>
       <c r="O2" t="n">
         <v>332475.5333392152</v>
       </c>
       <c r="P2" t="n">
-        <v>332475.5333392152</v>
+        <v>332475.5333392151</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>243007.4792597991</v>
+        <v>243007.4792597992</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230061.7875075232</v>
+        <v>230061.7875075233</v>
       </c>
       <c r="C4" t="n">
         <v>230061.7875075233</v>
@@ -26429,7 +26429,7 @@
         <v>57689.9009862259</v>
       </c>
       <c r="F4" t="n">
-        <v>57689.9009862259</v>
+        <v>57689.90098622592</v>
       </c>
       <c r="G4" t="n">
         <v>57689.9009862259</v>
@@ -26450,10 +26450,10 @@
         <v>100610.1291211617</v>
       </c>
       <c r="M4" t="n">
-        <v>86464.83118699232</v>
+        <v>86464.83118699229</v>
       </c>
       <c r="N4" t="n">
-        <v>86464.83118699232</v>
+        <v>86464.83118699229</v>
       </c>
       <c r="O4" t="n">
         <v>86464.83118699232</v>
@@ -26508,10 +26508,10 @@
         <v>69595.57996912792</v>
       </c>
       <c r="O5" t="n">
-        <v>69595.57996912792</v>
+        <v>69595.57996912794</v>
       </c>
       <c r="P5" t="n">
-        <v>69595.57996912792</v>
+        <v>69595.57996912794</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-67780.48818861594</v>
       </c>
       <c r="C6" t="n">
-        <v>86845.23242950419</v>
+        <v>86845.23242950425</v>
       </c>
       <c r="D6" t="n">
-        <v>86845.23242950445</v>
+        <v>86845.23242950442</v>
       </c>
       <c r="E6" t="n">
-        <v>-94244.45621993288</v>
+        <v>-94733.09460344403</v>
       </c>
       <c r="F6" t="n">
-        <v>148763.0230398662</v>
+        <v>148274.3846563552</v>
       </c>
       <c r="G6" t="n">
-        <v>148763.0230398662</v>
+        <v>148274.3846563552</v>
       </c>
       <c r="H6" t="n">
-        <v>148763.0230398662</v>
+        <v>148274.3846563553</v>
       </c>
       <c r="I6" t="n">
-        <v>30132.73528081714</v>
+        <v>30108.40280895109</v>
       </c>
       <c r="J6" t="n">
-        <v>69285.93728865492</v>
+        <v>69261.60481678888</v>
       </c>
       <c r="K6" t="n">
-        <v>190008.4542314118</v>
+        <v>189984.121759546</v>
       </c>
       <c r="L6" t="n">
-        <v>190008.4542314115</v>
+        <v>189984.1217595457</v>
       </c>
       <c r="M6" t="n">
-        <v>176415.1221830948</v>
+        <v>176237.7675643715</v>
       </c>
       <c r="N6" t="n">
-        <v>176415.1221830949</v>
+        <v>176237.7675643714</v>
       </c>
       <c r="O6" t="n">
-        <v>176415.1221830949</v>
+        <v>176237.7675643717</v>
       </c>
       <c r="P6" t="n">
-        <v>176415.1221830949</v>
+        <v>176237.7675643716</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>228.8343118184369</v>
+        <v>228.834311818437</v>
       </c>
       <c r="F3" t="n">
         <v>228.8343118184369</v>
@@ -26798,10 +26798,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>659.5434616885386</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="F4" t="n">
-        <v>659.5434616885386</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="G4" t="n">
         <v>659.5434616885386</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>228.8343118184369</v>
+        <v>228.834311818437</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1435559282044</v>
+        <v>198.1435559282045</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>601.2150937706856</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>198.1435559282044</v>
+        <v>198.1435559282045</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.1742418699266</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>27.54860018807011</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27432,19 +27432,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>36.38140024334342</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>91.7024781059412</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>56.38454581829627</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>50.06393661063242</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>87.7058522997168</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27827,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>21.83664327433269</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>276.3528156537888</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>206.3343440542548</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.0347473292335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.919936931933414</v>
+        <v>0.9199369319334142</v>
       </c>
       <c r="H11" t="n">
-        <v>9.421304104163079</v>
+        <v>9.421304104163081</v>
       </c>
       <c r="I11" t="n">
-        <v>35.46586856836298</v>
+        <v>35.46586856836299</v>
       </c>
       <c r="J11" t="n">
-        <v>78.07849717668367</v>
+        <v>78.07849717668368</v>
       </c>
       <c r="K11" t="n">
         <v>117.0194275054251</v>
       </c>
       <c r="L11" t="n">
-        <v>145.1729473860823</v>
+        <v>145.1729473860824</v>
       </c>
       <c r="M11" t="n">
         <v>161.5328757993532</v>
@@ -31776,25 +31776,25 @@
         <v>164.146646607209</v>
       </c>
       <c r="O11" t="n">
-        <v>154.9990237402961</v>
+        <v>154.9990237402962</v>
       </c>
       <c r="P11" t="n">
         <v>132.28808073319</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.34283935832453</v>
+        <v>99.34283935832455</v>
       </c>
       <c r="R11" t="n">
-        <v>57.78698830056237</v>
+        <v>57.78698830056238</v>
       </c>
       <c r="S11" t="n">
-        <v>20.96306283643269</v>
+        <v>20.9630628364327</v>
       </c>
       <c r="T11" t="n">
         <v>4.027023919538522</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0735949545546731</v>
+        <v>0.07359495455467312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4922096518358832</v>
+        <v>0.4922096518358833</v>
       </c>
       <c r="H12" t="n">
-        <v>4.753709005888662</v>
+        <v>4.753709005888663</v>
       </c>
       <c r="I12" t="n">
-        <v>16.94669196013896</v>
+        <v>16.94669196013897</v>
       </c>
       <c r="J12" t="n">
-        <v>46.50301802717878</v>
+        <v>46.50301802717879</v>
       </c>
       <c r="K12" t="n">
-        <v>79.48106470018294</v>
+        <v>79.48106470018297</v>
       </c>
       <c r="L12" t="n">
         <v>106.8721000619974</v>
@@ -31852,28 +31852,28 @@
         <v>124.7146999410481</v>
       </c>
       <c r="N12" t="n">
-        <v>128.0155269483159</v>
+        <v>128.015526948316</v>
       </c>
       <c r="O12" t="n">
-        <v>117.1091972944787</v>
+        <v>117.1091972944788</v>
       </c>
       <c r="P12" t="n">
-        <v>93.99045535802931</v>
+        <v>93.99045535802934</v>
       </c>
       <c r="Q12" t="n">
-        <v>62.830130293998</v>
+        <v>62.83013029399802</v>
       </c>
       <c r="R12" t="n">
-        <v>30.56017469907353</v>
+        <v>30.56017469907354</v>
       </c>
       <c r="S12" t="n">
-        <v>9.142578401425279</v>
+        <v>9.142578401425283</v>
       </c>
       <c r="T12" t="n">
-        <v>1.983950307180598</v>
+        <v>1.983950307180599</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03238221393657127</v>
+        <v>0.03238221393657128</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4126520377053779</v>
+        <v>0.4126520377053781</v>
       </c>
       <c r="H13" t="n">
         <v>3.668851753416909</v>
@@ -31919,40 +31919,40 @@
         <v>12.40957218844901</v>
       </c>
       <c r="J13" t="n">
-        <v>29.17449906577022</v>
+        <v>29.17449906577023</v>
       </c>
       <c r="K13" t="n">
-        <v>47.94266401704299</v>
+        <v>47.94266401704301</v>
       </c>
       <c r="L13" t="n">
-        <v>61.35010386030684</v>
+        <v>61.35010386030686</v>
       </c>
       <c r="M13" t="n">
-        <v>64.68508260139846</v>
+        <v>64.68508260139849</v>
       </c>
       <c r="N13" t="n">
-        <v>63.14701591540575</v>
+        <v>63.14701591540577</v>
       </c>
       <c r="O13" t="n">
-        <v>58.32648983857472</v>
+        <v>58.32648983857474</v>
       </c>
       <c r="P13" t="n">
-        <v>49.90838826938496</v>
+        <v>49.90838826938498</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.55398108458397</v>
+        <v>34.55398108458398</v>
       </c>
       <c r="R13" t="n">
-        <v>18.55433616809817</v>
+        <v>18.55433616809818</v>
       </c>
       <c r="S13" t="n">
-        <v>7.191399602556448</v>
+        <v>7.19139960255645</v>
       </c>
       <c r="T13" t="n">
         <v>1.763149615650251</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02250829296574791</v>
+        <v>0.02250829296574792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.9199369319334141</v>
       </c>
       <c r="H14" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I14" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J14" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K14" t="n">
         <v>117.0194275054251</v>
       </c>
       <c r="L14" t="n">
-        <v>145.1729473860823</v>
+        <v>145.1729473860824</v>
       </c>
       <c r="M14" t="n">
         <v>161.5328757993532</v>
@@ -32016,13 +32016,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P14" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832454</v>
       </c>
       <c r="R14" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056238</v>
       </c>
       <c r="S14" t="n">
         <v>20.96306283643269</v>
@@ -32031,7 +32031,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.07359495455467312</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H15" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888663</v>
       </c>
       <c r="I15" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J15" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K15" t="n">
-        <v>79.48106470018294</v>
+        <v>79.48106470018296</v>
       </c>
       <c r="L15" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M15" t="n">
         <v>124.7146999410481</v>
       </c>
       <c r="N15" t="n">
-        <v>128.0155269483159</v>
+        <v>128.015526948316</v>
       </c>
       <c r="O15" t="n">
-        <v>117.1091972944787</v>
+        <v>117.1091972944788</v>
       </c>
       <c r="P15" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802932</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.830130293998</v>
+        <v>62.83013029399801</v>
       </c>
       <c r="R15" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S15" t="n">
-        <v>9.142578401425279</v>
+        <v>9.142578401425281</v>
       </c>
       <c r="T15" t="n">
-        <v>1.983950307180598</v>
+        <v>1.983950307180599</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03238221393657127</v>
+        <v>0.03238221393657128</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4126520377053779</v>
+        <v>0.412652037705378</v>
       </c>
       <c r="H16" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I16" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J16" t="n">
         <v>29.17449906577022</v>
       </c>
       <c r="K16" t="n">
-        <v>47.94266401704299</v>
+        <v>47.942664017043</v>
       </c>
       <c r="L16" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030685</v>
       </c>
       <c r="M16" t="n">
-        <v>64.68508260139846</v>
+        <v>64.68508260139848</v>
       </c>
       <c r="N16" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O16" t="n">
-        <v>58.32648983857472</v>
+        <v>58.32648983857473</v>
       </c>
       <c r="P16" t="n">
-        <v>49.90838826938496</v>
+        <v>49.90838826938497</v>
       </c>
       <c r="Q16" t="n">
         <v>34.55398108458397</v>
@@ -32183,13 +32183,13 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S16" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556449</v>
       </c>
       <c r="T16" t="n">
         <v>1.763149615650251</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02250829296574791</v>
+        <v>0.02250829296574792</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H17" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I17" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J17" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K17" t="n">
         <v>117.0194275054251</v>
@@ -32253,13 +32253,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P17" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R17" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S17" t="n">
         <v>20.96306283643269</v>
@@ -32268,7 +32268,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H18" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I18" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J18" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K18" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L18" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M18" t="n">
         <v>124.7146999410481</v>
@@ -32332,13 +32332,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P18" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q18" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R18" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S18" t="n">
         <v>9.142578401425279</v>
@@ -32387,10 +32387,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H19" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I19" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J19" t="n">
         <v>29.17449906577022</v>
@@ -32399,13 +32399,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L19" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M19" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N19" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O19" t="n">
         <v>58.32648983857472</v>
@@ -32420,7 +32420,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S19" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T19" t="n">
         <v>1.763149615650251</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H20" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I20" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J20" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K20" t="n">
         <v>117.0194275054251</v>
@@ -32490,13 +32490,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P20" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R20" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S20" t="n">
         <v>20.96306283643269</v>
@@ -32505,7 +32505,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H21" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I21" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J21" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K21" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L21" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M21" t="n">
         <v>124.7146999410481</v>
@@ -32569,13 +32569,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P21" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q21" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R21" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S21" t="n">
         <v>9.142578401425279</v>
@@ -32624,10 +32624,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H22" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I22" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J22" t="n">
         <v>29.17449906577022</v>
@@ -32636,13 +32636,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L22" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M22" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N22" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O22" t="n">
         <v>58.32648983857472</v>
@@ -32657,7 +32657,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S22" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T22" t="n">
         <v>1.763149615650251</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H23" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I23" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J23" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K23" t="n">
         <v>117.0194275054251</v>
@@ -32727,13 +32727,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P23" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R23" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S23" t="n">
         <v>20.96306283643269</v>
@@ -32742,7 +32742,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H24" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I24" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J24" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K24" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L24" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M24" t="n">
         <v>124.7146999410481</v>
@@ -32806,13 +32806,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P24" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q24" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R24" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S24" t="n">
         <v>9.142578401425279</v>
@@ -32861,10 +32861,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H25" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I25" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J25" t="n">
         <v>29.17449906577022</v>
@@ -32873,13 +32873,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L25" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M25" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N25" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O25" t="n">
         <v>58.32648983857472</v>
@@ -32894,7 +32894,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S25" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T25" t="n">
         <v>1.763149615650251</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H26" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I26" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J26" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K26" t="n">
         <v>117.0194275054251</v>
@@ -32964,13 +32964,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P26" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q26" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R26" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S26" t="n">
         <v>20.96306283643269</v>
@@ -32979,7 +32979,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H27" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I27" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J27" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K27" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L27" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M27" t="n">
         <v>124.7146999410481</v>
@@ -33043,13 +33043,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P27" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q27" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R27" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S27" t="n">
         <v>9.142578401425279</v>
@@ -33098,10 +33098,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H28" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I28" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J28" t="n">
         <v>29.17449906577022</v>
@@ -33110,13 +33110,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L28" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M28" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N28" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O28" t="n">
         <v>58.32648983857472</v>
@@ -33131,7 +33131,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S28" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T28" t="n">
         <v>1.763149615650251</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H29" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I29" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J29" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K29" t="n">
         <v>117.0194275054251</v>
@@ -33201,13 +33201,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P29" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q29" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R29" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S29" t="n">
         <v>20.96306283643269</v>
@@ -33216,7 +33216,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H30" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I30" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J30" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K30" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L30" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M30" t="n">
         <v>124.7146999410481</v>
@@ -33280,13 +33280,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P30" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q30" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R30" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S30" t="n">
         <v>9.142578401425279</v>
@@ -33335,10 +33335,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H31" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I31" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J31" t="n">
         <v>29.17449906577022</v>
@@ -33347,13 +33347,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L31" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M31" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N31" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O31" t="n">
         <v>58.32648983857472</v>
@@ -33368,7 +33368,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S31" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T31" t="n">
         <v>1.763149615650251</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H32" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I32" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J32" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K32" t="n">
         <v>117.0194275054251</v>
@@ -33438,13 +33438,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P32" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q32" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R32" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S32" t="n">
         <v>20.96306283643269</v>
@@ -33453,7 +33453,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H33" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I33" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J33" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K33" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L33" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M33" t="n">
         <v>124.7146999410481</v>
@@ -33517,13 +33517,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P33" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q33" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R33" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S33" t="n">
         <v>9.142578401425279</v>
@@ -33572,10 +33572,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H34" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I34" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J34" t="n">
         <v>29.17449906577022</v>
@@ -33584,13 +33584,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L34" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M34" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N34" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O34" t="n">
         <v>58.32648983857472</v>
@@ -33605,7 +33605,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S34" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T34" t="n">
         <v>1.763149615650251</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H35" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I35" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J35" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K35" t="n">
         <v>117.0194275054251</v>
@@ -33675,13 +33675,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P35" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q35" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R35" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S35" t="n">
         <v>20.96306283643269</v>
@@ -33690,7 +33690,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H36" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I36" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J36" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K36" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L36" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M36" t="n">
         <v>124.7146999410481</v>
@@ -33754,13 +33754,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P36" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q36" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R36" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S36" t="n">
         <v>9.142578401425279</v>
@@ -33809,10 +33809,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H37" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I37" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J37" t="n">
         <v>29.17449906577022</v>
@@ -33821,13 +33821,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L37" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M37" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N37" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O37" t="n">
         <v>58.32648983857472</v>
@@ -33842,7 +33842,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S37" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T37" t="n">
         <v>1.763149615650251</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H38" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I38" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J38" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K38" t="n">
         <v>117.0194275054251</v>
@@ -33912,13 +33912,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P38" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q38" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R38" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S38" t="n">
         <v>20.96306283643269</v>
@@ -33927,7 +33927,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H39" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I39" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J39" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K39" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L39" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M39" t="n">
         <v>124.7146999410481</v>
@@ -33991,13 +33991,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P39" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q39" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R39" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S39" t="n">
         <v>9.142578401425279</v>
@@ -34046,10 +34046,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H40" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I40" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J40" t="n">
         <v>29.17449906577022</v>
@@ -34058,13 +34058,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L40" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M40" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N40" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O40" t="n">
         <v>58.32648983857472</v>
@@ -34079,7 +34079,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S40" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T40" t="n">
         <v>1.763149615650251</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H41" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I41" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J41" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K41" t="n">
         <v>117.0194275054251</v>
@@ -34149,13 +34149,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P41" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q41" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R41" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S41" t="n">
         <v>20.96306283643269</v>
@@ -34164,7 +34164,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H42" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I42" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J42" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K42" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L42" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M42" t="n">
         <v>124.7146999410481</v>
@@ -34228,13 +34228,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P42" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q42" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R42" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S42" t="n">
         <v>9.142578401425279</v>
@@ -34283,10 +34283,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H43" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I43" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J43" t="n">
         <v>29.17449906577022</v>
@@ -34295,13 +34295,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L43" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M43" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N43" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O43" t="n">
         <v>58.32648983857472</v>
@@ -34316,7 +34316,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S43" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T43" t="n">
         <v>1.763149615650251</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9199369319334139</v>
+        <v>0.919936931933414</v>
       </c>
       <c r="H44" t="n">
-        <v>9.421304104163077</v>
+        <v>9.421304104163079</v>
       </c>
       <c r="I44" t="n">
-        <v>35.46586856836297</v>
+        <v>35.46586856836298</v>
       </c>
       <c r="J44" t="n">
-        <v>78.07849717668365</v>
+        <v>78.07849717668367</v>
       </c>
       <c r="K44" t="n">
         <v>117.0194275054251</v>
@@ -34386,13 +34386,13 @@
         <v>154.9990237402961</v>
       </c>
       <c r="P44" t="n">
-        <v>132.2880807331899</v>
+        <v>132.28808073319</v>
       </c>
       <c r="Q44" t="n">
-        <v>99.34283935832451</v>
+        <v>99.34283935832453</v>
       </c>
       <c r="R44" t="n">
-        <v>57.78698830056236</v>
+        <v>57.78698830056237</v>
       </c>
       <c r="S44" t="n">
         <v>20.96306283643269</v>
@@ -34401,7 +34401,7 @@
         <v>4.027023919538522</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07359495455467309</v>
+        <v>0.0735949545546731</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4922096518358831</v>
+        <v>0.4922096518358832</v>
       </c>
       <c r="H45" t="n">
-        <v>4.753709005888661</v>
+        <v>4.753709005888662</v>
       </c>
       <c r="I45" t="n">
         <v>16.94669196013896</v>
       </c>
       <c r="J45" t="n">
-        <v>46.50301802717877</v>
+        <v>46.50301802717878</v>
       </c>
       <c r="K45" t="n">
         <v>79.48106470018294</v>
       </c>
       <c r="L45" t="n">
-        <v>106.8721000619973</v>
+        <v>106.8721000619974</v>
       </c>
       <c r="M45" t="n">
         <v>124.7146999410481</v>
@@ -34465,13 +34465,13 @@
         <v>117.1091972944787</v>
       </c>
       <c r="P45" t="n">
-        <v>93.99045535802929</v>
+        <v>93.99045535802931</v>
       </c>
       <c r="Q45" t="n">
         <v>62.830130293998</v>
       </c>
       <c r="R45" t="n">
-        <v>30.56017469907352</v>
+        <v>30.56017469907353</v>
       </c>
       <c r="S45" t="n">
         <v>9.142578401425279</v>
@@ -34520,10 +34520,10 @@
         <v>0.4126520377053779</v>
       </c>
       <c r="H46" t="n">
-        <v>3.668851753416908</v>
+        <v>3.668851753416909</v>
       </c>
       <c r="I46" t="n">
-        <v>12.409572188449</v>
+        <v>12.40957218844901</v>
       </c>
       <c r="J46" t="n">
         <v>29.17449906577022</v>
@@ -34532,13 +34532,13 @@
         <v>47.94266401704299</v>
       </c>
       <c r="L46" t="n">
-        <v>61.35010386030683</v>
+        <v>61.35010386030684</v>
       </c>
       <c r="M46" t="n">
         <v>64.68508260139846</v>
       </c>
       <c r="N46" t="n">
-        <v>63.14701591540574</v>
+        <v>63.14701591540575</v>
       </c>
       <c r="O46" t="n">
         <v>58.32648983857472</v>
@@ -34553,7 +34553,7 @@
         <v>18.55433616809817</v>
       </c>
       <c r="S46" t="n">
-        <v>7.191399602556447</v>
+        <v>7.191399602556448</v>
       </c>
       <c r="T46" t="n">
         <v>1.763149615650251</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L2" t="n">
         <v>461.3999057603342</v>
@@ -34710,10 +34710,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
         <v>461.3999057603342</v>
@@ -34789,19 +34789,19 @@
         <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>39.69056852337214</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="L5" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>77.94592742031416</v>
+      </c>
+      <c r="P6" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>435.2356237478842</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>324.7212149383462</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L8" t="n">
-        <v>443.4649875463285</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="M9" t="n">
-        <v>435.2356237478845</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>147.9399276549434</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9179660243994761</v>
+        <v>0.9179660243994832</v>
       </c>
       <c r="J11" t="n">
-        <v>73.04666106689353</v>
+        <v>48.65853769109716</v>
       </c>
       <c r="K11" t="n">
-        <v>659.5434616885386</v>
+        <v>81.25482671061579</v>
       </c>
       <c r="L11" t="n">
-        <v>106.8609049534594</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="M11" t="n">
-        <v>659.5434616885386</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5434616885386</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="O11" t="n">
-        <v>117.608064384272</v>
+        <v>117.6080643842721</v>
       </c>
       <c r="P11" t="n">
-        <v>94.71271892295866</v>
+        <v>94.71271892295869</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.21816475372648</v>
+        <v>113.2123663723665</v>
       </c>
       <c r="R11" t="n">
         <v>176.5307609085448</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7743052101389623</v>
+        <v>0.7743052101389658</v>
       </c>
       <c r="J12" t="n">
-        <v>25.89190369384544</v>
+        <v>46.02526043058614</v>
       </c>
       <c r="K12" t="n">
-        <v>57.0818308668496</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="L12" t="n">
-        <v>84.3570133477678</v>
+        <v>84.35701334776783</v>
       </c>
       <c r="M12" t="n">
-        <v>243.4097668103031</v>
+        <v>101.6179194287201</v>
       </c>
       <c r="N12" t="n">
         <v>106.6724987347743</v>
       </c>
       <c r="O12" t="n">
-        <v>93.93730757225653</v>
+        <v>93.93730757225656</v>
       </c>
       <c r="P12" t="n">
-        <v>659.5434616885386</v>
+        <v>72.21961415320067</v>
       </c>
       <c r="Q12" t="n">
         <v>531.6639453069064</v>
       </c>
       <c r="R12" t="n">
-        <v>6.887255304929383</v>
+        <v>113.4079626634201</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>419.622145571843</v>
       </c>
       <c r="M13" t="n">
-        <v>459.8222492380154</v>
+        <v>459.8222492380155</v>
       </c>
       <c r="N13" t="n">
         <v>444.4515723558459</v>
@@ -35585,10 +35585,10 @@
         <v>417.3448016363152</v>
       </c>
       <c r="P13" t="n">
-        <v>343.4429457662546</v>
+        <v>343.4429457662547</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.8369409237374</v>
+        <v>162.8369409237375</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J14" t="n">
-        <v>48.65853769109713</v>
+        <v>48.65853769109714</v>
       </c>
       <c r="K14" t="n">
-        <v>131.2490283292558</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="L14" t="n">
-        <v>659.5434616885386</v>
+        <v>106.8609049534595</v>
       </c>
       <c r="M14" t="n">
-        <v>659.5434616885386</v>
+        <v>263.6183054130432</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5434616885386</v>
+        <v>126.867023772763</v>
       </c>
       <c r="O14" t="n">
-        <v>117.608064384272</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="P14" t="n">
-        <v>94.71271892295863</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.21816475372647</v>
+        <v>63.2181647537265</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5307609085448</v>
+        <v>22.75433840576591</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>24.46855353782769</v>
+        <v>0.7743052101389623</v>
       </c>
       <c r="J15" t="n">
-        <v>25.89190369384543</v>
+        <v>25.89190369384545</v>
       </c>
       <c r="K15" t="n">
-        <v>57.0818308668496</v>
+        <v>659.5434616885387</v>
       </c>
       <c r="L15" t="n">
-        <v>659.5434616885386</v>
+        <v>211.0110774429994</v>
       </c>
       <c r="M15" t="n">
         <v>101.6179194287201</v>
@@ -35740,16 +35740,16 @@
         <v>106.6724987347743</v>
       </c>
       <c r="O15" t="n">
-        <v>128.429311587267</v>
+        <v>93.93730757225654</v>
       </c>
       <c r="P15" t="n">
-        <v>659.5434616885386</v>
+        <v>72.21961415320067</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.08309200501949</v>
+        <v>531.6639453069064</v>
       </c>
       <c r="R15" t="n">
-        <v>6.887255304929379</v>
+        <v>6.887255304929386</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>419.622145571843</v>
       </c>
       <c r="M16" t="n">
-        <v>459.8222492380154</v>
+        <v>459.8222492380155</v>
       </c>
       <c r="N16" t="n">
         <v>444.4515723558459</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J17" t="n">
-        <v>48.65853769109713</v>
+        <v>444.3446171937499</v>
       </c>
       <c r="K17" t="n">
-        <v>81.25482671061575</v>
+        <v>294.7159713563182</v>
       </c>
       <c r="L17" t="n">
         <v>106.8609049534594</v>
       </c>
       <c r="M17" t="n">
+        <v>124.1016128999214</v>
+      </c>
+      <c r="N17" t="n">
+        <v>126.867023772763</v>
+      </c>
+      <c r="O17" t="n">
+        <v>117.608064384272</v>
+      </c>
+      <c r="P17" t="n">
         <v>659.5434616885386</v>
       </c>
-      <c r="N17" t="n">
-        <v>659.5434616885386</v>
-      </c>
-      <c r="O17" t="n">
-        <v>223.4677445938144</v>
-      </c>
-      <c r="P17" t="n">
-        <v>94.71271892295863</v>
-      </c>
       <c r="Q17" t="n">
-        <v>560.0352428979033</v>
+        <v>560.0352428979035</v>
       </c>
       <c r="R17" t="n">
         <v>176.5307609085448</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7743052101389587</v>
+        <v>0.7743052101389623</v>
       </c>
       <c r="J18" t="n">
-        <v>25.89190369384543</v>
+        <v>320.9449263904021</v>
       </c>
       <c r="K18" t="n">
-        <v>57.0818308668496</v>
+        <v>659.5434616885386</v>
       </c>
       <c r="L18" t="n">
-        <v>84.35701334776779</v>
+        <v>407.5389080483296</v>
       </c>
       <c r="M18" t="n">
-        <v>203.8373505774816</v>
+        <v>101.6179194287201</v>
       </c>
       <c r="N18" t="n">
-        <v>659.5434616885386</v>
+        <v>106.6724987347743</v>
       </c>
       <c r="O18" t="n">
-        <v>659.5434616885386</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P18" t="n">
         <v>72.21961415320064</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.08309200501949</v>
+        <v>40.08309200501951</v>
       </c>
       <c r="R18" t="n">
-        <v>6.887255304929379</v>
+        <v>6.887255304929383</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J20" t="n">
-        <v>444.3446171937498</v>
+        <v>444.3446171937499</v>
       </c>
       <c r="K20" t="n">
-        <v>81.25482671061575</v>
+        <v>659.5434616885386</v>
       </c>
       <c r="L20" t="n">
         <v>106.8609049534594</v>
       </c>
       <c r="M20" t="n">
-        <v>324.5987432353384</v>
+        <v>124.1016128999214</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5434616885386</v>
+        <v>126.867023772763</v>
       </c>
       <c r="O20" t="n">
-        <v>659.5434616885386</v>
+        <v>117.608064384272</v>
       </c>
       <c r="P20" t="n">
-        <v>94.71271892295863</v>
+        <v>448.4923938590968</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.21816475372647</v>
+        <v>560.0352428979035</v>
       </c>
       <c r="R20" t="n">
-        <v>176.5307609085448</v>
+        <v>22.7543384057659</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.46855353782769</v>
+        <v>0.7743052101389623</v>
       </c>
       <c r="J21" t="n">
-        <v>25.89190369384543</v>
+        <v>25.89190369384544</v>
       </c>
       <c r="K21" t="n">
-        <v>57.0818308668496</v>
+        <v>659.5434616885386</v>
       </c>
       <c r="L21" t="n">
-        <v>162.8821961688405</v>
+        <v>84.3570133477678</v>
       </c>
       <c r="M21" t="n">
         <v>101.6179194287201</v>
       </c>
       <c r="N21" t="n">
-        <v>659.5434616885386</v>
+        <v>106.6724987347743</v>
       </c>
       <c r="O21" t="n">
-        <v>659.5434616885386</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P21" t="n">
-        <v>72.21961415320064</v>
+        <v>198.8736782484328</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.08309200501949</v>
+        <v>531.6639453069064</v>
       </c>
       <c r="R21" t="n">
-        <v>6.887255304929379</v>
+        <v>6.887255304929383</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J23" t="n">
-        <v>48.65853769109713</v>
+        <v>444.3446171937499</v>
       </c>
       <c r="K23" t="n">
-        <v>81.25482671061575</v>
+        <v>839.7550921271413</v>
       </c>
       <c r="L23" t="n">
-        <v>1084.188147001513</v>
+        <v>863.1399818146357</v>
       </c>
       <c r="M23" t="n">
-        <v>1175.963281273149</v>
+        <v>124.1016128999214</v>
       </c>
       <c r="N23" t="n">
-        <v>1150.258826896806</v>
+        <v>126.867023772763</v>
       </c>
       <c r="O23" t="n">
         <v>1008.680488539096</v>
       </c>
       <c r="P23" t="n">
-        <v>202.4234824234343</v>
+        <v>847.721696044228</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.21816475372647</v>
+        <v>560.0352428979035</v>
       </c>
       <c r="R23" t="n">
         <v>176.5307609085448</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7743052101389587</v>
+        <v>24.46855353782769</v>
       </c>
       <c r="J24" t="n">
-        <v>25.89190369384543</v>
+        <v>320.9449263904021</v>
       </c>
       <c r="K24" t="n">
         <v>57.0818308668496</v>
       </c>
       <c r="L24" t="n">
-        <v>84.35701334776779</v>
+        <v>134.5827045663866</v>
       </c>
       <c r="M24" t="n">
         <v>101.6179194287201</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7312198460349</v>
+        <v>106.6724987347743</v>
       </c>
       <c r="O24" t="n">
-        <v>1015.575134679804</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P24" t="n">
-        <v>72.21961415320064</v>
+        <v>817.4224927706535</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.08309200501949</v>
+        <v>40.08309200501951</v>
       </c>
       <c r="R24" t="n">
-        <v>6.887255304929379</v>
+        <v>113.4079626634201</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J26" t="n">
-        <v>444.3446171937498</v>
+        <v>48.65853769109714</v>
       </c>
       <c r="K26" t="n">
-        <v>81.25482671061575</v>
+        <v>839.7550921271413</v>
       </c>
       <c r="L26" t="n">
         <v>1084.188147001513</v>
@@ -36609,16 +36609,16 @@
         <v>1150.258826896806</v>
       </c>
       <c r="O26" t="n">
-        <v>1008.680488539096</v>
+        <v>313.7030222336068</v>
       </c>
       <c r="P26" t="n">
-        <v>361.7819931498331</v>
+        <v>847.721696044228</v>
       </c>
       <c r="Q26" t="n">
-        <v>560.0352428979033</v>
+        <v>560.0352428979035</v>
       </c>
       <c r="R26" t="n">
-        <v>176.5307609085448</v>
+        <v>22.7543384057659</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7743052101389587</v>
+        <v>24.46855353782769</v>
       </c>
       <c r="J27" t="n">
-        <v>25.89190369384543</v>
+        <v>320.9449263904021</v>
       </c>
       <c r="K27" t="n">
         <v>57.0818308668496</v>
       </c>
       <c r="L27" t="n">
-        <v>84.35701334776779</v>
+        <v>84.3570133477678</v>
       </c>
       <c r="M27" t="n">
-        <v>200.6533116836126</v>
+        <v>101.6179194287201</v>
       </c>
       <c r="N27" t="n">
-        <v>1228.33365469869</v>
+        <v>106.6724987347743</v>
       </c>
       <c r="O27" t="n">
-        <v>93.93730757225651</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P27" t="n">
-        <v>72.21961415320064</v>
+        <v>376.0673306873855</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.08309200501949</v>
+        <v>531.6639453069064</v>
       </c>
       <c r="R27" t="n">
-        <v>6.887255304929379</v>
+        <v>113.4079626634201</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J29" t="n">
-        <v>444.3446171937498</v>
+        <v>444.3446171937499</v>
       </c>
       <c r="K29" t="n">
-        <v>81.25482671061575</v>
+        <v>839.7550921271413</v>
       </c>
       <c r="L29" t="n">
         <v>1084.188147001513</v>
       </c>
       <c r="M29" t="n">
-        <v>1175.963281273149</v>
+        <v>399.870525857221</v>
       </c>
       <c r="N29" t="n">
-        <v>1150.258826896806</v>
+        <v>126.867023772763</v>
       </c>
       <c r="O29" t="n">
-        <v>720.7051725369201</v>
+        <v>1008.680488539096</v>
       </c>
       <c r="P29" t="n">
-        <v>94.71271892295863</v>
+        <v>847.721696044228</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.21816475372647</v>
+        <v>63.21816475372648</v>
       </c>
       <c r="R29" t="n">
         <v>176.5307609085448</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7743052101389587</v>
+        <v>24.46855353782769</v>
       </c>
       <c r="J30" t="n">
-        <v>25.89190369384543</v>
+        <v>25.89190369384544</v>
       </c>
       <c r="K30" t="n">
         <v>57.0818308668496</v>
       </c>
       <c r="L30" t="n">
-        <v>84.35701334776779</v>
+        <v>84.3570133477678</v>
       </c>
       <c r="M30" t="n">
-        <v>1191.36776860372</v>
+        <v>101.6179194287201</v>
       </c>
       <c r="N30" t="n">
-        <v>237.6191977785823</v>
+        <v>106.6724987347743</v>
       </c>
       <c r="O30" t="n">
-        <v>93.93730757225651</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P30" t="n">
-        <v>72.21961415320064</v>
+        <v>817.4224927706535</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.08309200501949</v>
+        <v>491.8825132786856</v>
       </c>
       <c r="R30" t="n">
-        <v>6.887255304929379</v>
+        <v>6.887255304929383</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J32" t="n">
-        <v>156.3693011915736</v>
+        <v>444.3446171937499</v>
       </c>
       <c r="K32" t="n">
-        <v>81.25482671061575</v>
+        <v>839.7550921271413</v>
       </c>
       <c r="L32" t="n">
-        <v>1084.188147001513</v>
+        <v>863.1399818146357</v>
       </c>
       <c r="M32" t="n">
-        <v>1175.963281273149</v>
+        <v>124.1016128999214</v>
       </c>
       <c r="N32" t="n">
-        <v>1150.258826896806</v>
+        <v>126.867023772763</v>
       </c>
       <c r="O32" t="n">
         <v>1008.680488539096</v>
       </c>
       <c r="P32" t="n">
-        <v>94.71271892295863</v>
+        <v>847.721696044228</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.21816475372647</v>
+        <v>560.0352428979035</v>
       </c>
       <c r="R32" t="n">
         <v>176.5307609085448</v>
@@ -37147,31 +37147,31 @@
         <v>24.46855353782769</v>
       </c>
       <c r="J33" t="n">
-        <v>25.89190369384543</v>
+        <v>320.9449263904021</v>
       </c>
       <c r="K33" t="n">
-        <v>57.0818308668496</v>
+        <v>675.9304854762836</v>
       </c>
       <c r="L33" t="n">
-        <v>84.35701334776779</v>
+        <v>84.3570133477678</v>
       </c>
       <c r="M33" t="n">
-        <v>176.9590633559239</v>
+        <v>101.6179194287201</v>
       </c>
       <c r="N33" t="n">
-        <v>1228.33365469869</v>
+        <v>106.6724987347743</v>
       </c>
       <c r="O33" t="n">
-        <v>93.93730757225651</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P33" t="n">
-        <v>72.21961415320064</v>
+        <v>355.3202367383288</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.08309200501949</v>
+        <v>40.08309200501951</v>
       </c>
       <c r="R33" t="n">
-        <v>6.887255304929379</v>
+        <v>6.887255304929383</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J35" t="n">
-        <v>48.65853769109713</v>
+        <v>48.65853769109714</v>
       </c>
       <c r="K35" t="n">
-        <v>81.25482671061575</v>
+        <v>839.7550921271413</v>
       </c>
       <c r="L35" t="n">
-        <v>294.2445166294215</v>
+        <v>1062.61499953102</v>
       </c>
       <c r="M35" t="n">
-        <v>1062.61499953102</v>
+        <v>580.5930978704982</v>
       </c>
       <c r="N35" t="n">
         <v>126.867023772763</v>
       </c>
       <c r="O35" t="n">
-        <v>1008.680488539096</v>
+        <v>117.608064384272</v>
       </c>
       <c r="P35" t="n">
-        <v>847.7216960442279</v>
+        <v>847.721696044228</v>
       </c>
       <c r="Q35" t="n">
-        <v>560.0352428979033</v>
+        <v>560.0352428979035</v>
       </c>
       <c r="R35" t="n">
-        <v>176.5307609085448</v>
+        <v>22.7543384057659</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>24.46855353782769</v>
       </c>
       <c r="J36" t="n">
-        <v>25.89190369384543</v>
+        <v>25.89190369384544</v>
       </c>
       <c r="K36" t="n">
-        <v>57.0818308668496</v>
+        <v>675.9304854762836</v>
       </c>
       <c r="L36" t="n">
-        <v>84.35701334776779</v>
+        <v>84.3570133477678</v>
       </c>
       <c r="M36" t="n">
-        <v>342.6777185235938</v>
+        <v>101.6179194287201</v>
       </c>
       <c r="N36" t="n">
-        <v>1062.61499953102</v>
+        <v>106.6724987347743</v>
       </c>
       <c r="O36" t="n">
-        <v>93.93730757225651</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P36" t="n">
         <v>72.21961415320064</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.08309200501949</v>
+        <v>531.6639453069064</v>
       </c>
       <c r="R36" t="n">
-        <v>6.887255304929379</v>
+        <v>93.46004728472738</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J38" t="n">
-        <v>48.65853769109713</v>
+        <v>444.3446171937499</v>
       </c>
       <c r="K38" t="n">
-        <v>405.1741529428953</v>
+        <v>839.7550921271413</v>
       </c>
       <c r="L38" t="n">
-        <v>1062.61499953102</v>
+        <v>106.8609049534594</v>
       </c>
       <c r="M38" t="n">
         <v>124.1016128999214</v>
@@ -37560,13 +37560,13 @@
         <v>1008.680488539096</v>
       </c>
       <c r="P38" t="n">
-        <v>847.7216960442279</v>
+        <v>847.721696044228</v>
       </c>
       <c r="Q38" t="n">
-        <v>560.0352428979033</v>
+        <v>560.0352428979035</v>
       </c>
       <c r="R38" t="n">
-        <v>22.75433840576589</v>
+        <v>148.2414142964261</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7743052101389587</v>
+        <v>0.7743052101389623</v>
       </c>
       <c r="J39" t="n">
-        <v>25.89190369384543</v>
+        <v>25.89190369384544</v>
       </c>
       <c r="K39" t="n">
-        <v>57.0818308668496</v>
+        <v>675.9304854762836</v>
       </c>
       <c r="L39" t="n">
-        <v>84.35701334776779</v>
+        <v>84.3570133477678</v>
       </c>
       <c r="M39" t="n">
-        <v>366.3719668512823</v>
+        <v>211.8849597362068</v>
       </c>
       <c r="N39" t="n">
-        <v>1062.61499953102</v>
+        <v>106.6724987347743</v>
       </c>
       <c r="O39" t="n">
-        <v>93.93730757225651</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P39" t="n">
         <v>72.21961415320064</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.08309200501949</v>
+        <v>531.6639453069064</v>
       </c>
       <c r="R39" t="n">
-        <v>6.887255304929379</v>
+        <v>6.887255304929383</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J41" t="n">
-        <v>444.3446171937498</v>
+        <v>444.3446171937499</v>
       </c>
       <c r="K41" t="n">
         <v>839.7550921271413</v>
       </c>
       <c r="L41" t="n">
-        <v>106.8609049534594</v>
+        <v>232.3479808441201</v>
       </c>
       <c r="M41" t="n">
         <v>124.1016128999214</v>
       </c>
       <c r="N41" t="n">
-        <v>252.3540996634245</v>
+        <v>126.867023772763</v>
       </c>
       <c r="O41" t="n">
         <v>1008.680488539096</v>
       </c>
       <c r="P41" t="n">
-        <v>847.7216960442279</v>
+        <v>847.721696044228</v>
       </c>
       <c r="Q41" t="n">
-        <v>560.0352428979033</v>
+        <v>560.0352428979035</v>
       </c>
       <c r="R41" t="n">
-        <v>22.75433840576589</v>
+        <v>22.7543384057659</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7743052101389587</v>
+        <v>24.46855353782769</v>
       </c>
       <c r="J42" t="n">
-        <v>285.5913718103534</v>
+        <v>320.9449263904021</v>
       </c>
       <c r="K42" t="n">
         <v>57.0818308668496</v>
       </c>
       <c r="L42" t="n">
-        <v>84.35701334776779</v>
+        <v>84.3570133477678</v>
       </c>
       <c r="M42" t="n">
-        <v>1062.61499953102</v>
+        <v>101.6179194287201</v>
       </c>
       <c r="N42" t="n">
         <v>106.6724987347743</v>
       </c>
       <c r="O42" t="n">
-        <v>93.93730757225651</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P42" t="n">
-        <v>72.21961415320064</v>
+        <v>817.4224927706535</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.08309200501949</v>
+        <v>90.30878322363826</v>
       </c>
       <c r="R42" t="n">
-        <v>6.887255304929379</v>
+        <v>113.4079626634201</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9179660243994689</v>
+        <v>0.9179660243994761</v>
       </c>
       <c r="J44" t="n">
-        <v>444.3446171937498</v>
+        <v>444.3446171937499</v>
       </c>
       <c r="K44" t="n">
-        <v>762.4970505615114</v>
+        <v>746.7840750922875</v>
       </c>
       <c r="L44" t="n">
         <v>1062.61499953102</v>
@@ -38031,16 +38031,16 @@
         <v>126.867023772763</v>
       </c>
       <c r="O44" t="n">
-        <v>1008.680488539096</v>
+        <v>117.608064384272</v>
       </c>
       <c r="P44" t="n">
-        <v>94.71271892295863</v>
+        <v>847.721696044228</v>
       </c>
       <c r="Q44" t="n">
-        <v>560.0352428979033</v>
+        <v>560.0352428979035</v>
       </c>
       <c r="R44" t="n">
-        <v>22.75433840576589</v>
+        <v>176.5307609085448</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7743052101389587</v>
+        <v>24.46855353782769</v>
       </c>
       <c r="J45" t="n">
-        <v>285.5913718103534</v>
+        <v>320.9449263904021</v>
       </c>
       <c r="K45" t="n">
-        <v>57.0818308668496</v>
+        <v>360.9295474010345</v>
       </c>
       <c r="L45" t="n">
-        <v>84.35701334776779</v>
+        <v>84.3570133477678</v>
       </c>
       <c r="M45" t="n">
-        <v>1062.61499953102</v>
+        <v>101.6179194287201</v>
       </c>
       <c r="N45" t="n">
         <v>106.6724987347743</v>
       </c>
       <c r="O45" t="n">
-        <v>93.93730757225651</v>
+        <v>93.93730757225653</v>
       </c>
       <c r="P45" t="n">
         <v>72.21961415320064</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.08309200501949</v>
+        <v>531.6639453069064</v>
       </c>
       <c r="R45" t="n">
-        <v>6.887255304929379</v>
+        <v>113.4079626634201</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
